--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32120C83-40F3-4236-9EB1-F2D40562F606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C9540D-AE4D-3942-B342-F73163E1811C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21285" yWindow="0" windowWidth="30465" windowHeight="20220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16500" yWindow="620" windowWidth="16480" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <author>tc={7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}</author>
   </authors>
   <commentList>
-    <comment ref="AJ10" authorId="0" shapeId="0" xr:uid="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
+    <comment ref="AP10" authorId="0" shapeId="0" xr:uid="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="122">
   <si>
     <t>Price</t>
   </si>
@@ -406,6 +406,18 @@
   </si>
   <si>
     <t>Software COGS</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -415,7 +427,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,12 +497,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -599,16 +605,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>35031</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>57117</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>155705</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>50486</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>59758</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>72572</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>69705</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -625,8 +631,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14740702" y="155705"/>
-          <a:ext cx="15455" cy="16166248"/>
+          <a:off x="19659291" y="0"/>
+          <a:ext cx="15455" cy="16966227"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -651,16 +657,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>39414</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>6283</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>78828</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>39414</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>6283</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>131379</xdr:rowOff>
+      <xdr:rowOff>52551</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -675,8 +681,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21546207" y="78828"/>
-          <a:ext cx="0" cy="11876689"/>
+          <a:off x="30177066" y="0"/>
+          <a:ext cx="0" cy="12310812"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -709,9 +715,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -749,7 +755,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -855,7 +861,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -997,7 +1003,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1005,7 +1011,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AJ10" dT="2023-04-23T20:32:30.18" personId="{DB2BD1D3-B51E-4CED-BC74-064ACA9A1F13}" id="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
+  <threadedComment ref="AP10" dT="2023-04-23T20:32:30.18" personId="{DB2BD1D3-B51E-4CED-BC74-064ACA9A1F13}" id="{7D7449AA-B6F8-4EBC-88EB-E7879CDB3FAB}">
     <text>Q123: 1.8m/year</text>
   </threadedComment>
 </ThreadedComments>
@@ -1015,24 +1021,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="16384" width="9.1640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="11">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1043,16 +1049,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="10">
         <f>K2*K3</f>
-        <v>521029.15408499999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>555764.43102400005</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1064,7 +1070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J6" s="9" t="s">
         <v>4</v>
       </c>
@@ -1076,16 +1082,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="J7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="10">
         <f>K4-K5+K6</f>
-        <v>503475.15408499999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+        <v>538210.43102400005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
@@ -1100,41 +1106,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E310252-7C49-48D8-9A64-7380C8DB275B}">
-  <dimension ref="A1:CU89"/>
+  <dimension ref="A1:DA89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="AK22" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="S45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT44" sqref="AT44"/>
+      <selection pane="bottomRight" activeCell="AA61" sqref="AA61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="2"/>
-    <col min="19" max="19" width="8.7109375" style="2" customWidth="1"/>
-    <col min="20" max="26" width="9.140625" style="2"/>
-    <col min="27" max="33" width="9.140625" style="1"/>
-    <col min="34" max="36" width="9.7109375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10.85546875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="10.28515625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="10.85546875" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.140625" style="1" customWidth="1"/>
-    <col min="41" max="44" width="10.85546875" style="1" customWidth="1"/>
-    <col min="45" max="45" width="9.140625" style="1"/>
-    <col min="46" max="46" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
+    <col min="3" max="18" width="9.1640625" style="2"/>
+    <col min="19" max="19" width="8.6640625" style="2" customWidth="1"/>
+    <col min="20" max="27" width="9.1640625" style="2"/>
+    <col min="28" max="30" width="8.5" style="2" customWidth="1"/>
+    <col min="31" max="39" width="9.1640625" style="1"/>
+    <col min="40" max="42" width="9.6640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="10.83203125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10.33203125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="10.83203125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="11.1640625" style="1" customWidth="1"/>
+    <col min="47" max="50" width="10.83203125" style="1" customWidth="1"/>
+    <col min="51" max="51" width="9.1640625" style="1"/>
+    <col min="52" max="52" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="W1" s="24"/>
     </row>
-    <row r="2" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="13" t="s">
         <v>84</v>
       </c>
@@ -1164,8 +1171,12 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
-    </row>
-    <row r="3" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+    </row>
+    <row r="3" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1224,27 +1235,56 @@
       <c r="W3" s="5">
         <v>10695</v>
       </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AF3" s="4">
+      <c r="X3" s="5">
+        <v>19225</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>15985</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>22969</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>17027</v>
+      </c>
+      <c r="AB3" s="5">
+        <f>+X3*1.3</f>
+        <v>24992.5</v>
+      </c>
+      <c r="AC3" s="5">
+        <f>+Y3*1.3</f>
+        <v>20780.5</v>
+      </c>
+      <c r="AD3" s="5">
+        <f>+Z3*1.3</f>
+        <v>29859.7</v>
+      </c>
+      <c r="AL3" s="4">
         <f>SUM(G3:J3)</f>
         <v>66771</v>
       </c>
-      <c r="AG3" s="4">
+      <c r="AM3" s="4">
         <f>SUM(K3:N3)</f>
         <v>56950</v>
       </c>
-      <c r="AH3" s="4">
+      <c r="AN3" s="4">
         <f>SUM(O3:R3)</f>
         <v>24935</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AO3" s="4">
         <f>SUM(S3:V3)</f>
         <v>66705</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP3" s="4">
+        <f>SUM(W3:Z3)</f>
+        <v>68874</v>
+      </c>
+      <c r="AQ3" s="4">
+        <f>SUM(AA3:AD3)</f>
+        <v>92659.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1303,27 +1343,56 @@
       <c r="W4" s="5">
         <v>412180</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AF4" s="4">
+      <c r="X4" s="5">
+        <v>446915</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>419074</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>461538</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>369783</v>
+      </c>
+      <c r="AB4" s="5">
+        <f>+X4*1.1</f>
+        <v>491606.50000000006</v>
+      </c>
+      <c r="AC4" s="5">
+        <f>+Y4*1.1</f>
+        <v>460981.4</v>
+      </c>
+      <c r="AD4" s="5">
+        <f>+Z4*1.1</f>
+        <v>507691.80000000005</v>
+      </c>
+      <c r="AL4" s="4">
         <f>SUM(G4:J4)</f>
         <v>300885</v>
       </c>
-      <c r="AG4" s="4">
+      <c r="AM4" s="4">
         <f>SUM(K4:N4)</f>
         <v>442066</v>
       </c>
-      <c r="AH4" s="4">
+      <c r="AN4" s="4">
         <f>SUM(O4:R4)</f>
         <v>911015</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AO4" s="4">
         <f>SUM(S4:V4)</f>
         <v>1247146</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP4" s="4">
+        <f>SUM(W4:Z4)</f>
+        <v>1739707</v>
+      </c>
+      <c r="AQ4" s="4">
+        <f>SUM(AA4:AD4)</f>
+        <v>1830062.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1399,59 +1468,84 @@
         <f>W4+W3</f>
         <v>422875</v>
       </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AF5" s="6">
-        <f>+AF3+AF4</f>
+      <c r="X5" s="7">
+        <f>X4+X3</f>
+        <v>466140</v>
+      </c>
+      <c r="Y5" s="7">
+        <f>Y4+Y3</f>
+        <v>435059</v>
+      </c>
+      <c r="Z5" s="7">
+        <f>Z4+Z3</f>
+        <v>484507</v>
+      </c>
+      <c r="AA5" s="7">
+        <f>AA4+AA3</f>
+        <v>386810</v>
+      </c>
+      <c r="AB5" s="7">
+        <f>AB4+AB3</f>
+        <v>516599.00000000006</v>
+      </c>
+      <c r="AC5" s="7">
+        <f>AC4+AC3</f>
+        <v>481761.9</v>
+      </c>
+      <c r="AD5" s="7">
+        <f>AD4+AD3</f>
+        <v>537551.5</v>
+      </c>
+      <c r="AL5" s="6">
+        <f>+AL3+AL4</f>
         <v>367656</v>
       </c>
-      <c r="AG5" s="6">
-        <f>+AG3+AG4</f>
+      <c r="AM5" s="6">
+        <f>+AM3+AM4</f>
         <v>499016</v>
       </c>
-      <c r="AH5" s="6">
-        <f>+AH3+AH4</f>
+      <c r="AN5" s="6">
+        <f>+AN3+AN4</f>
         <v>935950</v>
       </c>
-      <c r="AI5" s="6">
-        <f>+AI3+AI4</f>
+      <c r="AO5" s="6">
+        <f>+AO3+AO4</f>
         <v>1313851</v>
       </c>
-      <c r="AJ5" s="6">
-        <f>+AI5*1.35</f>
-        <v>1773698.85</v>
-      </c>
-      <c r="AK5" s="6">
-        <f>AK10</f>
-        <v>2403667.3050000002</v>
-      </c>
-      <c r="AL5" s="6">
-        <f t="shared" ref="AL5:AO5" si="1">AL10</f>
+      <c r="AP5" s="6">
+        <f>+AP3+AP4</f>
+        <v>1808581</v>
+      </c>
+      <c r="AQ5" s="6">
+        <f>+AQ3+AQ4</f>
+        <v>1922722.4</v>
+      </c>
+      <c r="AR5" s="6">
+        <f t="shared" ref="AR5:AU5" si="1">AR10</f>
         <v>3124767.4965000004</v>
       </c>
-      <c r="AM5" s="6">
+      <c r="AS5" s="6">
         <f t="shared" si="1"/>
         <v>3905959.3706250004</v>
       </c>
-      <c r="AN5" s="6">
+      <c r="AT5" s="6">
         <f t="shared" si="1"/>
         <v>4687151.2447500005</v>
       </c>
-      <c r="AO5" s="6">
+      <c r="AU5" s="6">
         <f t="shared" si="1"/>
         <v>5624581.4937000005</v>
       </c>
-      <c r="AP5" s="6">
-        <f t="shared" ref="AP5:AQ5" si="2">AP10</f>
+      <c r="AV5" s="6">
+        <f t="shared" ref="AV5:AW5" si="2">AV10</f>
         <v>6468268.7177550001</v>
       </c>
-      <c r="AQ5" s="6">
+      <c r="AW5" s="6">
         <f t="shared" si="2"/>
         <v>7115095.5895305006</v>
       </c>
     </row>
-    <row r="6" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1459,91 +1553,152 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="G6" s="5">
+        <f t="shared" ref="G6" si="3">G14*1000000/G5</f>
+        <v>55681.619828940478</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" ref="H6" si="4">H14*1000000/H5</f>
+        <v>54196.904232560089</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" ref="I6" si="5">I14*1000000/I5</f>
+        <v>52805.95970613051</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" ref="J6" si="6">J14*1000000/J5</f>
+        <v>54801.730674873994</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" ref="K6" si="7">K14*1000000/K5</f>
+        <v>55290.634604953899</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" ref="L6" si="8">L14*1000000/L5</f>
+        <v>54175.399889685606</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" ref="M6" si="9">M14*1000000/M5</f>
+        <v>52735.10409188801</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" ref="N6" si="10">N14*1000000/N5</f>
+        <v>47809.713684443705</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" ref="O6" si="11">O14*1000000/O5</f>
+        <v>44301.948051948049</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" ref="P6" si="12">P14*1000000/P5</f>
+        <v>47304.34782608696</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" ref="Q6" si="13">Q14*1000000/Q5</f>
+        <v>47215.084956485705</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" ref="R6" si="14">R14*1000000/R5</f>
+        <v>48687.621516526247</v>
+      </c>
       <c r="S6" s="5">
-        <f>S5/S14*1000</f>
-        <v>19985.045765115381</v>
+        <f t="shared" ref="S6" si="15">S14*1000000/S5</f>
+        <v>50037.413561771078</v>
       </c>
       <c r="T6" s="5">
-        <f>T5/T14*1000</f>
-        <v>18631.675201170445</v>
+        <f t="shared" ref="T6:Y6" si="16">T14*1000000/T5</f>
+        <v>53672.039105596894</v>
       </c>
       <c r="U6" s="5">
-        <f>U5/U14*1000</f>
-        <v>19332.583637897107</v>
+        <f t="shared" si="16"/>
+        <v>51726.143733821948</v>
       </c>
       <c r="V6" s="5">
-        <f>V5/V14*1000</f>
-        <v>19266.840979320179</v>
+        <f t="shared" si="16"/>
+        <v>51902.644604444358</v>
       </c>
       <c r="W6" s="5">
-        <f>W5/W14*1000</f>
-        <v>22400.413179362222</v>
-      </c>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AF6" s="5">
-        <f>AF14/AF5*1000000</f>
+        <f t="shared" si="16"/>
+        <v>44642.033697901272</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" si="16"/>
+        <v>43804.436435405674</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="16"/>
+        <v>42711.448332295156</v>
+      </c>
+      <c r="Z6" s="5">
+        <f>Z14*1000000/Z5</f>
+        <v>42579.364178432923</v>
+      </c>
+      <c r="AA6" s="5">
+        <f t="shared" ref="AA6:AD6" si="17">AA14*1000000/AA5</f>
+        <v>42553.191489361699</v>
+      </c>
+      <c r="AB6" s="5">
+        <f>+X6*1.05</f>
+        <v>45994.658257175957</v>
+      </c>
+      <c r="AC6" s="5">
+        <f>+Y6*1.05</f>
+        <v>44847.020748909919</v>
+      </c>
+      <c r="AD6" s="5">
+        <f>+Z6*1.05</f>
+        <v>44708.332387354574</v>
+      </c>
+      <c r="AL6" s="5">
+        <f>AL14/AL5*1000000</f>
         <v>54268.120199316756</v>
       </c>
-      <c r="AG6" s="5">
-        <f>AG14/AG5*1000000</f>
+      <c r="AM6" s="5">
+        <f>AM14/AM5*1000000</f>
         <v>51667.681998172404</v>
       </c>
-      <c r="AH6" s="5">
-        <f>AH14/AH5*1000000</f>
+      <c r="AN6" s="5">
+        <f>AN14/AN5*1000000</f>
         <v>47144.612425877451</v>
       </c>
-      <c r="AI6" s="5">
-        <f>AI14/AI5*1000000</f>
+      <c r="AO6" s="5">
+        <f>AO14/AO5*1000000</f>
         <v>51759.293862089384</v>
       </c>
-      <c r="AJ6" s="5">
-        <f>AJ14/AJ5*1000000</f>
-        <v>52074.228948166703</v>
-      </c>
-      <c r="AK6" s="4">
-        <f>AJ6*1.1</f>
-        <v>57281.651842983381</v>
-      </c>
-      <c r="AL6" s="4">
-        <f>AK6*1.03</f>
-        <v>59000.101398272884</v>
-      </c>
-      <c r="AM6" s="4">
-        <f>AL6*1.03</f>
-        <v>60770.104440221068</v>
-      </c>
-      <c r="AN6" s="4">
-        <f>AM6*1.03</f>
-        <v>62593.207573427702</v>
-      </c>
-      <c r="AO6" s="4">
-        <f>AN6*1.03</f>
-        <v>64471.003800630533</v>
-      </c>
-      <c r="AP6" s="4">
-        <f t="shared" ref="AP6:AQ6" si="3">AO6*1.03</f>
-        <v>66405.133914649457</v>
+      <c r="AP6" s="5">
+        <f>AP14/AP5*1000000</f>
+        <v>43409.169951470241</v>
       </c>
       <c r="AQ6" s="4">
-        <f t="shared" si="3"/>
-        <v>68397.287932088948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f>AP6*1.1</f>
+        <v>47750.086946617266</v>
+      </c>
+      <c r="AR6" s="4">
+        <f>AQ6*1.03</f>
+        <v>49182.589555015787</v>
+      </c>
+      <c r="AS6" s="4">
+        <f>AR6*1.03</f>
+        <v>50658.067241666264</v>
+      </c>
+      <c r="AT6" s="4">
+        <f>AS6*1.03</f>
+        <v>52177.809258916255</v>
+      </c>
+      <c r="AU6" s="4">
+        <f>AT6*1.03</f>
+        <v>53743.143536683747</v>
+      </c>
+      <c r="AV6" s="4">
+        <f t="shared" ref="AV6:AW6" si="18">AU6*1.03</f>
+        <v>55355.43784278426</v>
+      </c>
+      <c r="AW6" s="4">
+        <f t="shared" si="18"/>
+        <v>57016.100978067792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1568,8 +1723,12 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-    </row>
-    <row r="8" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+    </row>
+    <row r="8" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1628,27 +1787,39 @@
       <c r="W8" s="5">
         <v>19437</v>
       </c>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AF8" s="4">
+      <c r="X8" s="5">
+        <v>19489</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>13688</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>18212</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>20995</v>
+      </c>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AL8" s="4">
         <f>SUM(G8:J8)</f>
         <v>62931</v>
       </c>
-      <c r="AG8" s="4">
+      <c r="AM8" s="4">
         <f>SUM(K8:N8)</f>
         <v>54805</v>
       </c>
-      <c r="AH8" s="4">
+      <c r="AN8" s="4">
         <f>SUM(O8:R8)</f>
         <v>24390</v>
       </c>
-      <c r="AI8" s="4">
+      <c r="AO8" s="4">
         <f>SUM(S8:V8)</f>
         <v>71177</v>
       </c>
     </row>
-    <row r="9" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1707,27 +1878,39 @@
       <c r="W9" s="5">
         <v>421371</v>
       </c>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AF9" s="4">
+      <c r="X9" s="5">
+        <v>460211</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>416800</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>476777</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>412376</v>
+      </c>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AL9" s="4">
         <f>SUM(G9:J9)</f>
         <v>302301</v>
       </c>
-      <c r="AG9" s="4">
+      <c r="AM9" s="4">
         <f>SUM(K9:N9)</f>
         <v>454932</v>
       </c>
-      <c r="AH9" s="4">
+      <c r="AN9" s="4">
         <f>SUM(O9:R9)</f>
         <v>906032</v>
       </c>
-      <c r="AI9" s="4">
+      <c r="AO9" s="4">
         <f>SUM(S9:V9)</f>
         <v>1298434</v>
       </c>
     </row>
-    <row r="10" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1736,51 +1919,51 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7">
-        <f t="shared" ref="G10:R10" si="4">G9+G8</f>
+        <f t="shared" ref="G10:R10" si="19">G9+G8</f>
         <v>77138</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>87048</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>96155</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>104891</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>102672</v>
       </c>
       <c r="L10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>82272</v>
       </c>
       <c r="M10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>145036</v>
       </c>
       <c r="N10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>179757</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>180338</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>206421</v>
       </c>
       <c r="Q10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>237823</v>
       </c>
       <c r="R10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>305840</v>
       </c>
       <c r="S10" s="7">
@@ -1803,59 +1986,84 @@
         <f>+W8+W9</f>
         <v>440808</v>
       </c>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AF10" s="6">
-        <f>+AF8+AF9</f>
+      <c r="X10" s="7">
+        <f>+X8+X9</f>
+        <v>479700</v>
+      </c>
+      <c r="Y10" s="7">
+        <f>+Y8+Y9</f>
+        <v>430488</v>
+      </c>
+      <c r="Z10" s="7">
+        <f>+Z8+Z9</f>
+        <v>494989</v>
+      </c>
+      <c r="AA10" s="7">
+        <f>+AA8+AA9</f>
+        <v>433371</v>
+      </c>
+      <c r="AB10" s="7">
+        <f>+AB8+AB9</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7">
+        <f>+AC8+AC9</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7">
+        <f>+AD8+AD9</f>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="6">
+        <f>+AL8+AL9</f>
         <v>365232</v>
       </c>
-      <c r="AG10" s="6">
-        <f>+AG8+AG9</f>
+      <c r="AM10" s="6">
+        <f>+AM8+AM9</f>
         <v>509737</v>
       </c>
-      <c r="AH10" s="6">
-        <f>+AH8+AH9</f>
+      <c r="AN10" s="6">
+        <f>+AN8+AN9</f>
         <v>930422</v>
       </c>
-      <c r="AI10" s="6">
-        <f>+AI8+AI9</f>
+      <c r="AO10" s="6">
+        <f>+AO8+AO9</f>
         <v>1369611</v>
       </c>
-      <c r="AJ10" s="6">
-        <f>+AI10*1.35</f>
+      <c r="AP10" s="6">
+        <f>+AO10*1.35</f>
         <v>1848974.85</v>
       </c>
-      <c r="AK10" s="6">
-        <f>AJ10*1.3</f>
+      <c r="AQ10" s="6">
+        <f>AP10*1.3</f>
         <v>2403667.3050000002</v>
       </c>
-      <c r="AL10" s="6">
-        <f>AK10*1.3</f>
+      <c r="AR10" s="6">
+        <f>AQ10*1.3</f>
         <v>3124767.4965000004</v>
       </c>
-      <c r="AM10" s="6">
-        <f>AL10*1.25</f>
+      <c r="AS10" s="6">
+        <f>AR10*1.25</f>
         <v>3905959.3706250004</v>
       </c>
-      <c r="AN10" s="6">
-        <f>AM10*1.2</f>
+      <c r="AT10" s="6">
+        <f>AS10*1.2</f>
         <v>4687151.2447500005</v>
       </c>
-      <c r="AO10" s="6">
-        <f>AN10*1.2</f>
+      <c r="AU10" s="6">
+        <f>AT10*1.2</f>
         <v>5624581.4937000005</v>
       </c>
-      <c r="AP10" s="6">
-        <f>AO10*1.15</f>
+      <c r="AV10" s="6">
+        <f>AU10*1.15</f>
         <v>6468268.7177550001</v>
       </c>
-      <c r="AQ10" s="6">
-        <f>AP10*1.1</f>
+      <c r="AW10" s="6">
+        <f>AV10*1.1</f>
         <v>7115095.5895305006</v>
       </c>
     </row>
-    <row r="11" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1880,9 +2088,13 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AJ11" s="28"/>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AP11" s="28"/>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.15">
       <c r="C12" s="29" t="s">
         <v>94</v>
       </c>
@@ -1955,60 +2167,84 @@
       <c r="Z12" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AA12" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB12" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC12" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD12" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>2013</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>2014</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>2015</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>2016</v>
+      </c>
+      <c r="AJ12" s="1">
         <v>2017</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AK12" s="1">
         <v>2018</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AL12" s="1">
         <v>2019</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AM12" s="1">
         <v>2020</v>
       </c>
-      <c r="AH12" s="1">
-        <f>+AG12+1</f>
+      <c r="AN12" s="1">
+        <f>+AM12+1</f>
         <v>2021</v>
       </c>
-      <c r="AI12" s="1">
-        <f t="shared" ref="AI12:AO12" si="5">+AH12+1</f>
+      <c r="AO12" s="1">
+        <f t="shared" ref="AO12:AU12" si="20">+AN12+1</f>
         <v>2022</v>
       </c>
-      <c r="AJ12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AP12" s="1">
+        <f t="shared" si="20"/>
         <v>2023</v>
       </c>
-      <c r="AK12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AQ12" s="1">
+        <f t="shared" si="20"/>
         <v>2024</v>
       </c>
-      <c r="AL12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AR12" s="1">
+        <f t="shared" si="20"/>
         <v>2025</v>
       </c>
-      <c r="AM12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AS12" s="1">
+        <f t="shared" si="20"/>
         <v>2026</v>
       </c>
-      <c r="AN12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AT12" s="1">
+        <f t="shared" si="20"/>
         <v>2027</v>
       </c>
-      <c r="AO12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AU12" s="1">
+        <f t="shared" si="20"/>
         <v>2028</v>
       </c>
-      <c r="AP12" s="1">
-        <f t="shared" ref="AP12" si="6">+AO12+1</f>
+      <c r="AV12" s="1">
+        <f t="shared" ref="AV12" si="21">+AU12+1</f>
         <v>2029</v>
       </c>
-      <c r="AQ12" s="1">
-        <f t="shared" ref="AQ12" si="7">+AP12+1</f>
+      <c r="AW12" s="1">
+        <f t="shared" ref="AW12" si="22">+AV12+1</f>
         <v>2030</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.15">
       <c r="B13" s="30" t="s">
         <v>116</v>
       </c>
@@ -2020,36 +2256,19 @@
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
-      <c r="AK13" s="4">
-        <f>15*AK5/1000*0.1</f>
-        <v>3605.5009575000004</v>
-      </c>
-      <c r="AL13" s="4">
-        <f>15*AL5/1000*0.2</f>
-        <v>9374.3024895000017</v>
-      </c>
-      <c r="AM13" s="4">
-        <f>15*AM5/1000*0.3</f>
-        <v>17576.8171678125</v>
-      </c>
-      <c r="AN13" s="4">
-        <f>15*AN5/1000*0.4</f>
-        <v>28122.907468500009</v>
-      </c>
-      <c r="AO13" s="4">
-        <f>15*AO5/1000*0.5</f>
-        <v>42184.361202750006</v>
-      </c>
-      <c r="AP13" s="4">
-        <f>15*AP5/1000*0.6</f>
-        <v>58214.418459795001</v>
-      </c>
-      <c r="AQ13" s="4">
-        <f>15*AQ5/1000*0.7</f>
-        <v>74708.503690070254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+    </row>
+    <row r="14" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
@@ -2114,67 +2333,79 @@
         <v>18878</v>
       </c>
       <c r="X14" s="5">
-        <f>+T14*1.4</f>
-        <v>19138</v>
+        <v>20419</v>
       </c>
       <c r="Y14" s="5">
-        <f>+U14*1.4</f>
-        <v>24899</v>
+        <v>18582</v>
       </c>
       <c r="Z14" s="5">
-        <f>+V14*1.4</f>
-        <v>29448.999999999996</v>
-      </c>
-      <c r="AF14" s="4">
-        <f t="shared" ref="AF14:AF19" si="8">SUM(G14:J14)</f>
+        <v>20630</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>16460</v>
+      </c>
+      <c r="AB14" s="5">
+        <f>+AB6*AB5/1000000</f>
+        <v>23760.794460998844</v>
+      </c>
+      <c r="AC14" s="5">
+        <f>+AC6*AC5/1000000</f>
+        <v>21605.585925334268</v>
+      </c>
+      <c r="AD14" s="5">
+        <f>+AD6*AD5/1000000</f>
+        <v>24033.031137321035</v>
+      </c>
+      <c r="AL14" s="4">
+        <f t="shared" ref="AL14:AL19" si="23">SUM(G14:J14)</f>
         <v>19952</v>
       </c>
-      <c r="AG14" s="4">
+      <c r="AM14" s="4">
         <f>SUM(K14:N14)</f>
         <v>25783</v>
       </c>
-      <c r="AH14" s="4">
+      <c r="AN14" s="4">
         <f>SUM(O14:R14)</f>
         <v>44125</v>
       </c>
-      <c r="AI14" s="4">
+      <c r="AO14" s="4">
         <f>SUM(S14:V14)</f>
         <v>68004</v>
       </c>
-      <c r="AJ14" s="4">
+      <c r="AP14" s="4">
         <f>SUM(W14:Z14)</f>
-        <v>92364</v>
-      </c>
-      <c r="AK14" s="4">
-        <f>AK6*AK10/1000000</f>
-        <v>137686.03371137218</v>
-      </c>
-      <c r="AL14" s="4">
-        <f t="shared" ref="AL14:AQ14" si="9">AL6*AL10/1000000</f>
-        <v>184361.59913952733</v>
-      </c>
-      <c r="AM14" s="4">
-        <f t="shared" si="9"/>
-        <v>237365.55889214142</v>
-      </c>
-      <c r="AN14" s="4">
-        <f t="shared" si="9"/>
-        <v>293383.83079068683</v>
-      </c>
-      <c r="AO14" s="4">
-        <f t="shared" si="9"/>
-        <v>362622.41485728888</v>
-      </c>
-      <c r="AP14" s="4">
-        <f t="shared" si="9"/>
-        <v>429526.25039845874</v>
+        <v>78509</v>
       </c>
       <c r="AQ14" s="4">
-        <f t="shared" si="9"/>
-        <v>486653.24170145381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f>AQ6*AQ10/1000000</f>
+        <v>114775.32280449121</v>
+      </c>
+      <c r="AR14" s="4">
+        <f t="shared" ref="AR14:AW14" si="24">AR6*AR10/1000000</f>
+        <v>153684.15723521376</v>
+      </c>
+      <c r="AS14" s="4">
+        <f t="shared" si="24"/>
+        <v>197868.35244033771</v>
+      </c>
+      <c r="AT14" s="4">
+        <f t="shared" si="24"/>
+        <v>244565.28361625742</v>
+      </c>
+      <c r="AU14" s="4">
+        <f t="shared" si="24"/>
+        <v>302282.69054969423</v>
+      </c>
+      <c r="AV14" s="4">
+        <f t="shared" si="24"/>
+        <v>358053.84695611271</v>
+      </c>
+      <c r="AW14" s="4">
+        <f t="shared" si="24"/>
+        <v>405675.0086012758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
@@ -2228,46 +2459,58 @@
         <v>286</v>
       </c>
       <c r="V15" s="5">
-        <f t="shared" ref="V15:V16" si="10">+R15*1.4</f>
+        <f t="shared" ref="V15:V16" si="25">+R15*1.4</f>
         <v>439.59999999999997</v>
       </c>
       <c r="W15" s="5">
         <v>521</v>
       </c>
       <c r="X15" s="5">
-        <f>+T15*1.4</f>
-        <v>481.59999999999997</v>
+        <v>282</v>
       </c>
       <c r="Y15" s="5">
-        <f>+U15*1.4</f>
-        <v>400.4</v>
+        <v>554</v>
       </c>
       <c r="Z15" s="5">
-        <f>+V15*1.4</f>
-        <v>615.43999999999994</v>
-      </c>
-      <c r="AF15" s="4">
-        <f t="shared" si="8"/>
+        <v>433</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>442</v>
+      </c>
+      <c r="AB15" s="5">
+        <f>+X15</f>
+        <v>282</v>
+      </c>
+      <c r="AC15" s="5">
+        <f>+Y15</f>
+        <v>554</v>
+      </c>
+      <c r="AD15" s="5">
+        <f>+Z15</f>
+        <v>433</v>
+      </c>
+      <c r="AL15" s="4">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="4">
+      <c r="AM15" s="4">
         <f>SUM(K15:N15)</f>
         <v>401</v>
       </c>
-      <c r="AH15" s="4">
-        <f t="shared" ref="AH15:AH19" si="11">SUM(O15:R15)</f>
+      <c r="AN15" s="4">
+        <f t="shared" ref="AN15:AN19" si="26">SUM(O15:R15)</f>
         <v>1465</v>
       </c>
-      <c r="AI15" s="4">
-        <f t="shared" ref="AI15:AI30" si="12">SUM(S15:V15)</f>
+      <c r="AO15" s="4">
+        <f t="shared" ref="AO15:AO30" si="27">SUM(S15:V15)</f>
         <v>1748.6</v>
       </c>
-      <c r="AJ15" s="4">
-        <f t="shared" ref="AJ15:AJ35" si="13">SUM(W15:Z15)</f>
-        <v>2018.44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP15" s="4">
+        <f>SUM(W15:Z15)</f>
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
@@ -2321,46 +2564,58 @@
         <v>621</v>
       </c>
       <c r="V16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>879.19999999999993</v>
       </c>
       <c r="W16" s="5">
         <v>564</v>
       </c>
       <c r="X16" s="5">
-        <f t="shared" ref="X16" si="14">+T16*1.4</f>
-        <v>823.19999999999993</v>
+        <v>567</v>
       </c>
       <c r="Y16" s="5">
-        <f t="shared" ref="Y16" si="15">+U16*1.4</f>
-        <v>869.4</v>
+        <v>489</v>
       </c>
       <c r="Z16" s="5">
-        <f t="shared" ref="Z16" si="16">+V16*1.4</f>
-        <v>1230.8799999999999</v>
-      </c>
-      <c r="AF16" s="4">
-        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>476</v>
+      </c>
+      <c r="AB16" s="5">
+        <f>+X16</f>
+        <v>567</v>
+      </c>
+      <c r="AC16" s="5">
+        <f>+Y16</f>
+        <v>489</v>
+      </c>
+      <c r="AD16" s="5">
+        <f>+Z16</f>
+        <v>500</v>
+      </c>
+      <c r="AL16" s="4">
+        <f t="shared" si="23"/>
         <v>869</v>
       </c>
-      <c r="AG16" s="4">
+      <c r="AM16" s="4">
         <f>SUM(K16:N16)</f>
         <v>1052</v>
       </c>
-      <c r="AH16" s="4">
-        <f t="shared" si="11"/>
+      <c r="AN16" s="4">
+        <f t="shared" si="26"/>
         <v>1642</v>
       </c>
-      <c r="AI16" s="4">
-        <f t="shared" si="12"/>
+      <c r="AO16" s="4">
+        <f t="shared" si="27"/>
         <v>2756.2</v>
       </c>
-      <c r="AJ16" s="4">
-        <f t="shared" si="13"/>
-        <v>3487.4799999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="2:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP16" s="4">
+        <f>SUM(W16:Z16)</f>
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:49" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
@@ -2369,51 +2624,51 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7">
-        <f t="shared" ref="G17:K17" si="17">SUM(G14:G16)</f>
+        <f t="shared" ref="G17:K17" si="28">SUM(G14:G16)</f>
         <v>3724</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>5376</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>5353</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>6368</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>5132</v>
       </c>
       <c r="L17" s="7">
-        <f t="shared" ref="L17" si="18">SUM(L14:L16)</f>
+        <f t="shared" ref="L17" si="29">SUM(L14:L16)</f>
         <v>5179</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" ref="M17:R17" si="19">SUM(M14:M16)</f>
+        <f t="shared" ref="M17:R17" si="30">SUM(M14:M16)</f>
         <v>7611</v>
       </c>
       <c r="N17" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>9314</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>9002</v>
       </c>
       <c r="P17" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>10206</v>
       </c>
       <c r="Q17" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>12057</v>
       </c>
       <c r="R17" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>15967</v>
       </c>
       <c r="S17" s="7">
@@ -2429,75 +2684,91 @@
         <v>18692</v>
       </c>
       <c r="V17" s="7">
-        <f t="shared" ref="V17:Z17" si="20">SUM(V14:V16)</f>
+        <f t="shared" ref="V17:AD17" si="31">SUM(V14:V16)</f>
         <v>22353.8</v>
       </c>
       <c r="W17" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>19963</v>
       </c>
       <c r="X17" s="7">
-        <f t="shared" si="20"/>
-        <v>20442.8</v>
+        <f t="shared" si="31"/>
+        <v>21268</v>
       </c>
       <c r="Y17" s="7">
-        <f t="shared" si="20"/>
-        <v>26168.800000000003</v>
+        <f t="shared" si="31"/>
+        <v>19625</v>
       </c>
       <c r="Z17" s="7">
-        <f t="shared" si="20"/>
-        <v>31295.319999999996</v>
-      </c>
-      <c r="AF17" s="6">
-        <f>SUM(AF14:AF16)</f>
+        <f t="shared" si="31"/>
+        <v>21563</v>
+      </c>
+      <c r="AA17" s="7">
+        <f t="shared" si="31"/>
+        <v>17378</v>
+      </c>
+      <c r="AB17" s="7">
+        <f t="shared" si="31"/>
+        <v>24609.794460998844</v>
+      </c>
+      <c r="AC17" s="7">
+        <f t="shared" si="31"/>
+        <v>22648.585925334268</v>
+      </c>
+      <c r="AD17" s="7">
+        <f t="shared" si="31"/>
+        <v>24966.031137321035</v>
+      </c>
+      <c r="AL17" s="6">
+        <f>SUM(AL14:AL16)</f>
         <v>20821</v>
       </c>
-      <c r="AG17" s="6">
-        <f>SUM(AG14:AG16)</f>
+      <c r="AM17" s="6">
+        <f>SUM(AM14:AM16)</f>
         <v>27236</v>
       </c>
-      <c r="AH17" s="6">
-        <f>SUM(AH14:AH16)</f>
+      <c r="AN17" s="6">
+        <f>SUM(AN14:AN16)</f>
         <v>47232</v>
       </c>
-      <c r="AI17" s="6">
-        <f>SUM(AI14:AI16)</f>
+      <c r="AO17" s="6">
+        <f>SUM(AO14:AO16)</f>
         <v>72508.800000000003</v>
       </c>
-      <c r="AJ17" s="6">
-        <f>SUM(AJ14:AJ16)</f>
-        <v>97869.92</v>
-      </c>
-      <c r="AK17" s="6">
-        <f>AK14+AK15+AK16</f>
-        <v>137686.03371137218</v>
-      </c>
-      <c r="AL17" s="6">
-        <f>AL14+AL15+AL16</f>
-        <v>184361.59913952733</v>
-      </c>
-      <c r="AM17" s="6">
-        <f>AM14+AM15+AM16</f>
-        <v>237365.55889214142</v>
-      </c>
-      <c r="AN17" s="6">
-        <f>AN14+AN15+AN16</f>
-        <v>293383.83079068683</v>
-      </c>
-      <c r="AO17" s="6">
-        <f>AO14+AO15+AO16</f>
-        <v>362622.41485728888</v>
-      </c>
       <c r="AP17" s="6">
-        <f t="shared" ref="AP17:AQ17" si="21">AP14+AP15+AP16</f>
-        <v>429526.25039845874</v>
+        <f>SUM(AP14:AP16)</f>
+        <v>82419</v>
       </c>
       <c r="AQ17" s="6">
-        <f t="shared" si="21"/>
-        <v>486653.24170145381</v>
-      </c>
-    </row>
-    <row r="18" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f>AQ14+AQ15+AQ16</f>
+        <v>114775.32280449121</v>
+      </c>
+      <c r="AR17" s="6">
+        <f>AR14+AR15+AR16</f>
+        <v>153684.15723521376</v>
+      </c>
+      <c r="AS17" s="6">
+        <f>AS14+AS15+AS16</f>
+        <v>197868.35244033771</v>
+      </c>
+      <c r="AT17" s="6">
+        <f>AT14+AT15+AT16</f>
+        <v>244565.28361625742</v>
+      </c>
+      <c r="AU17" s="6">
+        <f>AU14+AU15+AU16</f>
+        <v>302282.69054969423</v>
+      </c>
+      <c r="AV17" s="6">
+        <f t="shared" ref="AV17:AW17" si="32">AV14+AV15+AV16</f>
+        <v>358053.84695611271</v>
+      </c>
+      <c r="AW17" s="6">
+        <f t="shared" si="32"/>
+        <v>405675.0086012758</v>
+      </c>
+    </row>
+    <row r="18" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
@@ -2551,46 +2822,67 @@
         <v>1117</v>
       </c>
       <c r="V18" s="5">
-        <f t="shared" ref="V18:V19" si="22">+R18*1.4</f>
+        <f t="shared" ref="V18:V19" si="33">+R18*1.4</f>
         <v>963.19999999999993</v>
       </c>
       <c r="W18" s="5">
         <v>1529</v>
       </c>
       <c r="X18" s="5">
-        <f t="shared" ref="X18:X19" si="23">+T18*1.4</f>
-        <v>1212.3999999999999</v>
+        <v>1509</v>
       </c>
       <c r="Y18" s="5">
-        <f t="shared" ref="Y18:Y19" si="24">+U18*1.4</f>
-        <v>1563.8</v>
+        <v>1559</v>
       </c>
       <c r="Z18" s="5">
-        <f t="shared" ref="Z18:Z19" si="25">+V18*1.4</f>
-        <v>1348.4799999999998</v>
+        <v>1438</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>1635</v>
+      </c>
+      <c r="AB18" s="5">
+        <f>+X18</f>
+        <v>1509</v>
+      </c>
+      <c r="AC18" s="5">
+        <f>+Y18</f>
+        <v>1559</v>
+      </c>
+      <c r="AD18" s="5">
+        <f>+Z18</f>
+        <v>1438</v>
       </c>
       <c r="AF18" s="4">
-        <f t="shared" si="8"/>
+        <v>1921.877</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>3007.0120000000002</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>3740.973</v>
+      </c>
+      <c r="AL18" s="4">
+        <f t="shared" si="23"/>
         <v>1531</v>
       </c>
-      <c r="AG18" s="4">
+      <c r="AM18" s="4">
         <f>SUM(K18:N18)</f>
         <v>1994</v>
       </c>
-      <c r="AH18" s="4">
+      <c r="AN18" s="4">
         <f>SUM(O18:R18)</f>
         <v>2789</v>
       </c>
-      <c r="AI18" s="4">
-        <f t="shared" si="12"/>
+      <c r="AO18" s="4">
+        <f t="shared" si="27"/>
         <v>3562.2</v>
       </c>
-      <c r="AJ18" s="4">
-        <f t="shared" si="13"/>
-        <v>5653.6799999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP18" s="4">
+        <f>SUM(W18:Z18)</f>
+        <v>6035</v>
+      </c>
+    </row>
+    <row r="19" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
@@ -2644,46 +2936,67 @@
         <v>1645</v>
       </c>
       <c r="V19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>1489.6</v>
       </c>
       <c r="W19" s="5">
         <v>1837</v>
       </c>
       <c r="X19" s="5">
+        <v>2150</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>2166</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>2166</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>2288</v>
+      </c>
+      <c r="AB19" s="5">
+        <f>+X19</f>
+        <v>2150</v>
+      </c>
+      <c r="AC19" s="5">
+        <f>+Y19</f>
+        <v>2166</v>
+      </c>
+      <c r="AD19" s="5">
+        <f>+Z19</f>
+        <v>2166</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>91.619</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>191.34399999999999</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>305.05200000000002</v>
+      </c>
+      <c r="AL19" s="4">
         <f t="shared" si="23"/>
-        <v>2052.4</v>
-      </c>
-      <c r="Y19" s="5">
-        <f t="shared" si="24"/>
-        <v>2303</v>
-      </c>
-      <c r="Z19" s="5">
-        <f t="shared" si="25"/>
-        <v>2085.4399999999996</v>
-      </c>
-      <c r="AF19" s="4">
-        <f t="shared" si="8"/>
         <v>2226</v>
       </c>
-      <c r="AG19" s="4">
+      <c r="AM19" s="4">
         <f>SUM(K19:N19)</f>
         <v>2306</v>
       </c>
-      <c r="AH19" s="4">
-        <f t="shared" si="11"/>
+      <c r="AN19" s="4">
+        <f t="shared" si="26"/>
         <v>3802</v>
       </c>
-      <c r="AI19" s="4">
-        <f t="shared" si="12"/>
+      <c r="AO19" s="4">
+        <f t="shared" si="27"/>
         <v>5879.6</v>
       </c>
-      <c r="AJ19" s="4">
-        <f t="shared" si="13"/>
-        <v>8277.84</v>
-      </c>
-    </row>
-    <row r="20" spans="2:43" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP19" s="4">
+        <f>SUM(W19:Z19)</f>
+        <v>8319</v>
+      </c>
+    </row>
+    <row r="20" spans="2:49" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
@@ -2692,51 +3005,51 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7">
-        <f t="shared" ref="G20:K20" si="26">SUM(G17:G19)</f>
+        <f t="shared" ref="G20:K20" si="34">SUM(G17:G19)</f>
         <v>4541</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>6350</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>6303</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>7384</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>5985</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" ref="L20" si="27">SUM(L17:L19)</f>
+        <f t="shared" ref="L20" si="35">SUM(L17:L19)</f>
         <v>6036</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" ref="M20:R20" si="28">SUM(M17:M19)</f>
+        <f t="shared" ref="M20:R20" si="36">SUM(M17:M19)</f>
         <v>8771</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>10744</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>10389</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>11958</v>
       </c>
       <c r="Q20" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>13757</v>
       </c>
       <c r="R20" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>17719</v>
       </c>
       <c r="S20" s="7">
@@ -2752,75 +3065,112 @@
         <v>21454</v>
       </c>
       <c r="V20" s="7">
-        <f t="shared" ref="V20:Z20" si="29">SUM(V17:V19)</f>
+        <f t="shared" ref="V20:AE20" si="37">SUM(V17:V19)</f>
         <v>24806.6</v>
       </c>
       <c r="W20" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>23329</v>
       </c>
       <c r="X20" s="7">
-        <f t="shared" si="29"/>
-        <v>23707.600000000002</v>
+        <f t="shared" si="37"/>
+        <v>24927</v>
       </c>
       <c r="Y20" s="7">
-        <f t="shared" si="29"/>
-        <v>30035.600000000002</v>
+        <f t="shared" si="37"/>
+        <v>23350</v>
       </c>
       <c r="Z20" s="7">
-        <f t="shared" si="29"/>
-        <v>34729.24</v>
+        <f t="shared" si="37"/>
+        <v>25167</v>
+      </c>
+      <c r="AA20" s="7">
+        <f t="shared" si="37"/>
+        <v>21301</v>
+      </c>
+      <c r="AB20" s="7">
+        <f t="shared" si="37"/>
+        <v>28268.794460998844</v>
+      </c>
+      <c r="AC20" s="7">
+        <f t="shared" si="37"/>
+        <v>26373.585925334268</v>
+      </c>
+      <c r="AD20" s="7">
+        <f t="shared" si="37"/>
+        <v>28570.031137321035</v>
       </c>
       <c r="AF20" s="6">
-        <f>SUM(AF17:AF19)</f>
+        <f>AF18+AF19</f>
+        <v>2013.4959999999999</v>
+      </c>
+      <c r="AG20" s="6">
+        <f>AG18+AG19</f>
+        <v>3198.3560000000002</v>
+      </c>
+      <c r="AH20" s="6">
+        <f>AH18+AH19</f>
+        <v>4046.0250000000001</v>
+      </c>
+      <c r="AI20" s="6">
+        <v>7000.1319999999996</v>
+      </c>
+      <c r="AJ20" s="6">
+        <v>11758.751</v>
+      </c>
+      <c r="AK20" s="6">
+        <v>21461.268</v>
+      </c>
+      <c r="AL20" s="6">
+        <f t="shared" ref="AL20:AU20" si="38">SUM(AL17:AL19)</f>
         <v>24578</v>
       </c>
-      <c r="AG20" s="6">
-        <f>SUM(AG17:AG19)</f>
+      <c r="AM20" s="6">
+        <f t="shared" si="38"/>
         <v>31536</v>
       </c>
-      <c r="AH20" s="6">
-        <f>SUM(AH17:AH19)</f>
+      <c r="AN20" s="6">
+        <f t="shared" si="38"/>
         <v>53823</v>
       </c>
-      <c r="AI20" s="6">
-        <f>SUM(AI17:AI19)</f>
+      <c r="AO20" s="6">
+        <f t="shared" si="38"/>
         <v>81950.600000000006</v>
       </c>
-      <c r="AJ20" s="6">
-        <f>SUM(AJ17:AJ19)</f>
-        <v>111801.43999999999</v>
-      </c>
-      <c r="AK20" s="6">
-        <f>SUM(AK17:AK19)</f>
-        <v>137686.03371137218</v>
-      </c>
-      <c r="AL20" s="6">
-        <f>SUM(AL17:AL19)</f>
-        <v>184361.59913952733</v>
-      </c>
-      <c r="AM20" s="6">
-        <f>SUM(AM17:AM19)</f>
-        <v>237365.55889214142</v>
-      </c>
-      <c r="AN20" s="6">
-        <f>SUM(AN17:AN19)</f>
-        <v>293383.83079068683</v>
-      </c>
-      <c r="AO20" s="6">
-        <f>SUM(AO17:AO19)</f>
-        <v>362622.41485728888</v>
-      </c>
       <c r="AP20" s="6">
-        <f t="shared" ref="AP20:AQ20" si="30">SUM(AP17:AP19)</f>
-        <v>429526.25039845874</v>
+        <f>SUM(AP17:AP19)</f>
+        <v>96773</v>
       </c>
       <c r="AQ20" s="6">
-        <f t="shared" si="30"/>
-        <v>486653.24170145381</v>
-      </c>
-    </row>
-    <row r="21" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="38"/>
+        <v>114775.32280449121</v>
+      </c>
+      <c r="AR20" s="6">
+        <f t="shared" si="38"/>
+        <v>153684.15723521376</v>
+      </c>
+      <c r="AS20" s="6">
+        <f t="shared" si="38"/>
+        <v>197868.35244033771</v>
+      </c>
+      <c r="AT20" s="6">
+        <f t="shared" si="38"/>
+        <v>244565.28361625742</v>
+      </c>
+      <c r="AU20" s="6">
+        <f t="shared" si="38"/>
+        <v>302282.69054969423</v>
+      </c>
+      <c r="AV20" s="6">
+        <f t="shared" ref="AV20:AW20" si="39">SUM(AV17:AV19)</f>
+        <v>358053.84695611271</v>
+      </c>
+      <c r="AW20" s="6">
+        <f t="shared" si="39"/>
+        <v>405675.0086012758</v>
+      </c>
+    </row>
+    <row r="21" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
@@ -2880,55 +3230,70 @@
         <v>15422</v>
       </c>
       <c r="X21" s="5">
-        <f t="shared" ref="W21:Z21" si="31">+X14*0.75</f>
-        <v>14353.5</v>
+        <v>16841</v>
       </c>
       <c r="Y21" s="5">
-        <f t="shared" si="31"/>
-        <v>18674.25</v>
+        <v>15656</v>
       </c>
       <c r="Z21" s="5">
-        <f t="shared" si="31"/>
-        <v>22086.749999999996</v>
-      </c>
-      <c r="AI21" s="4">
-        <f t="shared" si="12"/>
+        <v>17202</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>13897</v>
+      </c>
+      <c r="AB21" s="5">
+        <f>+AB14*0.85</f>
+        <v>20196.675291849017</v>
+      </c>
+      <c r="AC21" s="5">
+        <f>+AC14*0.85</f>
+        <v>18364.748036534129</v>
+      </c>
+      <c r="AD21" s="5">
+        <f>+AD14*0.85</f>
+        <v>20428.07646672288</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>1483.3209999999999</v>
+      </c>
+      <c r="AO21" s="4">
+        <f t="shared" si="27"/>
         <v>49599</v>
       </c>
-      <c r="AJ21" s="4">
-        <f t="shared" si="13"/>
-        <v>70536.5</v>
-      </c>
-      <c r="AK21" s="4">
-        <f>AK20*0.81</f>
-        <v>111525.68730621148</v>
-      </c>
-      <c r="AL21" s="4">
-        <f>AL20*0.8</f>
-        <v>147489.27931162188</v>
-      </c>
-      <c r="AM21" s="4">
-        <f>AM20*0.8</f>
-        <v>189892.44711371313</v>
-      </c>
-      <c r="AN21" s="4">
-        <f>AN20*0.8</f>
-        <v>234707.06463254947</v>
-      </c>
-      <c r="AO21" s="4">
-        <f>AO20*0.8</f>
-        <v>290097.93188583112</v>
-      </c>
       <c r="AP21" s="4">
-        <f t="shared" ref="AP21:AQ21" si="32">AP20*0.8</f>
-        <v>343621.00031876704</v>
+        <f t="shared" ref="AP15:AP35" si="40">SUM(W21:Z21)</f>
+        <v>65121</v>
       </c>
       <c r="AQ21" s="4">
-        <f t="shared" si="32"/>
-        <v>389322.59336116305</v>
-      </c>
-    </row>
-    <row r="22" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f>AQ20*0.81</f>
+        <v>92968.011471637888</v>
+      </c>
+      <c r="AR21" s="4">
+        <f>AR20*0.8</f>
+        <v>122947.32578817102</v>
+      </c>
+      <c r="AS21" s="4">
+        <f>AS20*0.8</f>
+        <v>158294.68195227018</v>
+      </c>
+      <c r="AT21" s="4">
+        <f>AT20*0.8</f>
+        <v>195652.22689300595</v>
+      </c>
+      <c r="AU21" s="4">
+        <f>AU20*0.8</f>
+        <v>241826.15243975539</v>
+      </c>
+      <c r="AV21" s="4">
+        <f t="shared" ref="AV21:AW21" si="41">AV20*0.8</f>
+        <v>286443.07756489021</v>
+      </c>
+      <c r="AW21" s="4">
+        <f t="shared" si="41"/>
+        <v>324540.00688102067</v>
+      </c>
+    </row>
+    <row r="22" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
@@ -2937,51 +3302,51 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
-        <f t="shared" ref="G22:N22" si="33">G14-G21</f>
+        <f t="shared" ref="G22:N22" si="42">G14-G21</f>
         <v>653</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>914</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1118</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1328</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1194</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1197</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1985</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>1711</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" ref="O22:R22" si="34">O14-O21</f>
+        <f t="shared" ref="O22:R22" si="43">O14-O21</f>
         <v>1730</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>2401</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>3243</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>4336</v>
       </c>
       <c r="S22" s="5">
@@ -2997,7 +3362,7 @@
         <v>4686</v>
       </c>
       <c r="V22" s="5">
-        <f t="shared" ref="V22:Z22" si="35">V14-V21</f>
+        <f t="shared" ref="V22:AD22" si="44">V14-V21</f>
         <v>5602</v>
       </c>
       <c r="W22" s="5">
@@ -3005,27 +3370,43 @@
         <v>3456</v>
       </c>
       <c r="X22" s="5">
-        <f t="shared" si="35"/>
-        <v>4784.5</v>
+        <f t="shared" si="44"/>
+        <v>3578</v>
       </c>
       <c r="Y22" s="5">
-        <f t="shared" si="35"/>
-        <v>6224.75</v>
+        <f t="shared" si="44"/>
+        <v>2926</v>
       </c>
       <c r="Z22" s="5">
-        <f t="shared" si="35"/>
-        <v>7362.25</v>
-      </c>
-      <c r="AI22" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="44"/>
+        <v>3428</v>
+      </c>
+      <c r="AA22" s="5">
+        <f>AA14-AA21</f>
+        <v>2563</v>
+      </c>
+      <c r="AB22" s="5">
+        <f>AB14-AB21</f>
+        <v>3564.1191691498279</v>
+      </c>
+      <c r="AC22" s="5">
+        <f>AC14-AC21</f>
+        <v>3240.8378888001389</v>
+      </c>
+      <c r="AD22" s="5">
+        <f>AD14-AD21</f>
+        <v>3604.9546705981556</v>
+      </c>
+      <c r="AO22" s="4">
+        <f t="shared" si="27"/>
         <v>18405</v>
       </c>
-      <c r="AJ22" s="4">
-        <f t="shared" si="13"/>
-        <v>21827.5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP22" s="4">
+        <f t="shared" si="40"/>
+        <v>13388</v>
+      </c>
+    </row>
+    <row r="23" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="31" t="s">
         <v>117</v>
       </c>
@@ -3053,36 +3434,40 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
-      <c r="AK23" s="4">
-        <f>AK13*0.2</f>
-        <v>721.10019150000016</v>
-      </c>
-      <c r="AL23" s="4">
-        <f t="shared" ref="AL23:AQ23" si="36">AL13*0.2</f>
-        <v>1874.8604979000004</v>
-      </c>
-      <c r="AM23" s="4">
-        <f t="shared" si="36"/>
-        <v>3515.3634335625002</v>
-      </c>
-      <c r="AN23" s="4">
-        <f t="shared" si="36"/>
-        <v>5624.5814937000023</v>
-      </c>
-      <c r="AO23" s="4">
-        <f t="shared" si="36"/>
-        <v>8436.8722405500012</v>
-      </c>
-      <c r="AP23" s="4">
-        <f t="shared" si="36"/>
-        <v>11642.883691959001</v>
-      </c>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
       <c r="AQ23" s="4">
-        <f t="shared" si="36"/>
-        <v>14941.700738014051</v>
-      </c>
-    </row>
-    <row r="24" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f>AQ13*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="AR23" s="4">
+        <f t="shared" ref="AR23:AW23" si="45">AR13*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="AS23" s="4">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AT23" s="4">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AU23" s="4">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AV23" s="4">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AW23" s="4">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>41</v>
       </c>
@@ -3142,27 +3527,39 @@
         <v>333</v>
       </c>
       <c r="X24" s="5">
-        <f t="shared" ref="W24:Z24" si="37">+T24*1.4</f>
-        <v>516.6</v>
+        <v>338</v>
       </c>
       <c r="Y24" s="5">
-        <f t="shared" si="37"/>
-        <v>533.4</v>
+        <v>301</v>
       </c>
       <c r="Z24" s="5">
-        <f t="shared" si="37"/>
-        <v>492.79999999999995</v>
-      </c>
-      <c r="AI24" s="4">
-        <f t="shared" si="12"/>
+        <v>296</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>269</v>
+      </c>
+      <c r="AB24" s="5">
+        <f>+AB16*0.5</f>
+        <v>283.5</v>
+      </c>
+      <c r="AC24" s="5">
+        <f>+AC16*0.5</f>
+        <v>244.5</v>
+      </c>
+      <c r="AD24" s="5">
+        <f>+AD16*0.5</f>
+        <v>250</v>
+      </c>
+      <c r="AO24" s="4">
+        <f t="shared" si="27"/>
         <v>1510</v>
       </c>
-      <c r="AJ24" s="4">
-        <f t="shared" si="13"/>
-        <v>1875.8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP24" s="4">
+        <f t="shared" si="40"/>
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="25" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
         <v>42</v>
       </c>
@@ -3171,35 +3568,35 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
-        <f t="shared" ref="G25:K25" si="38">G17-G24-G21</f>
+        <f t="shared" ref="G25:K25" si="46">G17-G24-G21</f>
         <v>751</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>1016</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>1222</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>1434</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>1311</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" ref="L25" si="39">L17-L24-L21</f>
+        <f t="shared" ref="L25" si="47">L17-L24-L21</f>
         <v>1317</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" ref="M25:N25" si="40">M17-M24-M21</f>
+        <f t="shared" ref="M25:N25" si="48">M17-M24-M21</f>
         <v>2105</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2244</v>
       </c>
       <c r="O25" s="5">
@@ -3207,19 +3604,19 @@
         <v>2385</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" ref="P25:S25" si="41">P17-P24-P21</f>
+        <f t="shared" ref="P25:S25" si="49">P17-P24-P21</f>
         <v>2899</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>3673</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>4882</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>5539</v>
       </c>
       <c r="T25" s="5">
@@ -3231,7 +3628,7 @@
         <v>5212</v>
       </c>
       <c r="V25" s="5">
-        <f t="shared" ref="V25:Z25" si="42">V17-V24-V21</f>
+        <f t="shared" ref="V25:AD25" si="50">V17-V24-V21</f>
         <v>6568.7999999999993</v>
       </c>
       <c r="W25" s="5">
@@ -3239,55 +3636,71 @@
         <v>4208</v>
       </c>
       <c r="X25" s="5">
-        <f t="shared" si="42"/>
-        <v>5572.7000000000007</v>
+        <f t="shared" si="50"/>
+        <v>4089</v>
       </c>
       <c r="Y25" s="5">
-        <f t="shared" si="42"/>
-        <v>6961.1500000000015</v>
+        <f t="shared" si="50"/>
+        <v>3668</v>
       </c>
       <c r="Z25" s="5">
-        <f t="shared" si="42"/>
-        <v>8715.77</v>
-      </c>
-      <c r="AI25" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="50"/>
+        <v>4065</v>
+      </c>
+      <c r="AA25" s="5">
+        <f t="shared" si="50"/>
+        <v>3212</v>
+      </c>
+      <c r="AB25" s="5">
+        <f t="shared" si="50"/>
+        <v>4129.6191691498279</v>
+      </c>
+      <c r="AC25" s="5">
+        <f t="shared" si="50"/>
+        <v>4039.3378888001389</v>
+      </c>
+      <c r="AD25" s="5">
+        <f t="shared" si="50"/>
+        <v>4287.9546705981556</v>
+      </c>
+      <c r="AO25" s="4">
+        <f t="shared" si="27"/>
         <v>21399.8</v>
       </c>
-      <c r="AJ25" s="4">
+      <c r="AP25" s="4">
         <f>SUM(W25:Z25)</f>
-        <v>25457.620000000003</v>
-      </c>
-      <c r="AK25" s="4">
-        <f>AK20-AK21</f>
-        <v>26160.346405160701</v>
-      </c>
-      <c r="AL25" s="4">
-        <f>AL20-AL21</f>
-        <v>36872.319827905449</v>
-      </c>
-      <c r="AM25" s="4">
-        <f>AM20-AM21</f>
-        <v>47473.111778428283</v>
-      </c>
-      <c r="AN25" s="4">
-        <f>AN20-AN21</f>
-        <v>58676.766158137354</v>
-      </c>
-      <c r="AO25" s="4">
-        <f>AO20-AO21</f>
-        <v>72524.482971457765</v>
-      </c>
-      <c r="AP25" s="4">
-        <f>AP20-AP21</f>
-        <v>85905.250079691701</v>
+        <v>16030</v>
       </c>
       <c r="AQ25" s="4">
-        <f>AQ20-AQ21</f>
-        <v>97330.648340290762</v>
-      </c>
-    </row>
-    <row r="26" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AQ25:AW25" si="51">AQ20-AQ21</f>
+        <v>21807.311332853322</v>
+      </c>
+      <c r="AR25" s="4">
+        <f t="shared" si="51"/>
+        <v>30736.831447042743</v>
+      </c>
+      <c r="AS25" s="4">
+        <f t="shared" si="51"/>
+        <v>39573.670488067524</v>
+      </c>
+      <c r="AT25" s="4">
+        <f t="shared" si="51"/>
+        <v>48913.056723251473</v>
+      </c>
+      <c r="AU25" s="4">
+        <f t="shared" si="51"/>
+        <v>60456.538109938847</v>
+      </c>
+      <c r="AV25" s="4">
+        <f t="shared" si="51"/>
+        <v>71610.769391222508</v>
+      </c>
+      <c r="AW25" s="4">
+        <f t="shared" si="51"/>
+        <v>81135.001720255124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>43</v>
       </c>
@@ -3347,27 +3760,39 @@
         <v>1361</v>
       </c>
       <c r="X26" s="5">
-        <f t="shared" ref="X26:X27" si="43">+T26*1.4</f>
-        <v>1076.5999999999999</v>
+        <v>1231</v>
       </c>
       <c r="Y26" s="5">
-        <f t="shared" ref="Y26:Y27" si="44">+U26*1.4</f>
-        <v>1418.1999999999998</v>
+        <v>1178</v>
       </c>
       <c r="Z26" s="5">
-        <f t="shared" ref="Z26:Z27" si="45">+V26*1.4</f>
-        <v>1611.3999999999999</v>
-      </c>
-      <c r="AI26" s="4">
-        <f t="shared" si="12"/>
+        <v>1124</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>1232</v>
+      </c>
+      <c r="AB26" s="5">
+        <f>+AB18*0.9</f>
+        <v>1358.1000000000001</v>
+      </c>
+      <c r="AC26" s="5">
+        <f>+AC18*0.9</f>
+        <v>1403.1000000000001</v>
+      </c>
+      <c r="AD26" s="5">
+        <f>+AD18*0.9</f>
+        <v>1294.2</v>
+      </c>
+      <c r="AO26" s="4">
+        <f t="shared" si="27"/>
         <v>3621</v>
       </c>
-      <c r="AJ26" s="4">
-        <f t="shared" si="13"/>
-        <v>5467.2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP26" s="4">
+        <f t="shared" si="40"/>
+        <v>4894</v>
+      </c>
+    </row>
+    <row r="27" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
@@ -3427,27 +3852,39 @@
         <v>1702</v>
       </c>
       <c r="X27" s="5">
-        <f t="shared" si="43"/>
-        <v>1973.9999999999998</v>
+        <v>1984</v>
       </c>
       <c r="Y27" s="5">
-        <f t="shared" si="44"/>
-        <v>2210.6</v>
+        <v>2037</v>
       </c>
       <c r="Z27" s="5">
-        <f t="shared" si="45"/>
-        <v>2247</v>
-      </c>
-      <c r="AI27" s="4">
-        <f t="shared" si="12"/>
+        <v>2107</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>2207</v>
+      </c>
+      <c r="AB27" s="5">
+        <f>+AB19</f>
+        <v>2150</v>
+      </c>
+      <c r="AC27" s="5">
+        <f>+AC19</f>
+        <v>2166</v>
+      </c>
+      <c r="AD27" s="5">
+        <f>+AD19</f>
+        <v>2166</v>
+      </c>
+      <c r="AO27" s="4">
+        <f t="shared" si="27"/>
         <v>5880</v>
       </c>
-      <c r="AJ27" s="4">
-        <f t="shared" si="13"/>
-        <v>8133.6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AP27" s="4">
+        <f t="shared" si="40"/>
+        <v>7830</v>
+      </c>
+    </row>
+    <row r="28" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
         <v>45</v>
       </c>
@@ -3456,59 +3893,59 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5">
-        <f t="shared" ref="G28:K28" si="46">G25+G18+G19-G26-G27</f>
+        <f t="shared" ref="G28:K28" si="52">G25+G18+G19-G26-G27</f>
         <v>566</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>921</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1191</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1391</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>1234</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" ref="L28" si="47">L25+L18+L19-L26-L27</f>
+        <f t="shared" ref="L28" si="53">L25+L18+L19-L26-L27</f>
         <v>1267</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" ref="M28:T28" si="48">M25+M18+M19-M26-M27</f>
+        <f t="shared" ref="M28:T28" si="54">M25+M18+M19-M26-M27</f>
         <v>2063</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>2066</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>2215</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>2884</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>3660</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>4847</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>5460</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>4233</v>
       </c>
       <c r="U28" s="5">
@@ -3524,55 +3961,71 @@
         <v>4511</v>
       </c>
       <c r="X28" s="5">
-        <f t="shared" ref="W28:Z28" si="49">+X20*0.25</f>
-        <v>5926.9000000000005</v>
+        <f>X25+X18+X19-X26-X27</f>
+        <v>4533</v>
       </c>
       <c r="Y28" s="5">
-        <f t="shared" si="49"/>
-        <v>7508.9000000000005</v>
+        <f>Y25+Y18+Y19-Y26-Y27</f>
+        <v>4178</v>
       </c>
       <c r="Z28" s="5">
-        <f t="shared" si="49"/>
-        <v>8682.31</v>
-      </c>
-      <c r="AI28" s="5">
-        <f t="shared" ref="AI28" si="50">+AI20*0.25</f>
+        <f>Z25+Z18+Z19-Z26-Z27</f>
+        <v>4438</v>
+      </c>
+      <c r="AA28" s="5">
+        <f>AA25+AA18+AA19-AA26-AA27</f>
+        <v>3696</v>
+      </c>
+      <c r="AB28" s="5">
+        <f>AB25+AB18+AB19-AB26-AB27</f>
+        <v>4280.5191691498276</v>
+      </c>
+      <c r="AC28" s="5">
+        <f>AC25+AC18+AC19-AC26-AC27</f>
+        <v>4195.2378888001385</v>
+      </c>
+      <c r="AD28" s="5">
+        <f>AD25+AD18+AD19-AD26-AD27</f>
+        <v>4431.7546705981558</v>
+      </c>
+      <c r="AO28" s="5">
+        <f t="shared" ref="AO28" si="55">+AO20*0.25</f>
         <v>20487.650000000001</v>
       </c>
-      <c r="AJ28" s="4">
-        <f t="shared" si="13"/>
-        <v>26629.11</v>
-      </c>
-      <c r="AK28" s="4">
-        <f>AK25+AK13-AK23</f>
-        <v>29044.7471711607</v>
-      </c>
-      <c r="AL28" s="4">
-        <f t="shared" ref="AL28:AQ28" si="51">AL25+AL13-AL23</f>
-        <v>44371.761819505446</v>
-      </c>
-      <c r="AM28" s="4">
-        <f t="shared" si="51"/>
-        <v>61534.56551267828</v>
-      </c>
-      <c r="AN28" s="4">
-        <f t="shared" si="51"/>
-        <v>81175.092132937367</v>
-      </c>
-      <c r="AO28" s="4">
-        <f t="shared" si="51"/>
-        <v>106271.97193365777</v>
-      </c>
       <c r="AP28" s="4">
-        <f t="shared" si="51"/>
-        <v>132476.78484752771</v>
+        <f t="shared" si="40"/>
+        <v>17660</v>
       </c>
       <c r="AQ28" s="4">
-        <f t="shared" si="51"/>
-        <v>157097.45129234696</v>
-      </c>
-    </row>
-    <row r="29" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f>AQ25+AQ13-AQ23</f>
+        <v>21807.311332853322</v>
+      </c>
+      <c r="AR28" s="4">
+        <f t="shared" ref="AR28:AW28" si="56">AR25+AR13-AR23</f>
+        <v>30736.831447042743</v>
+      </c>
+      <c r="AS28" s="4">
+        <f t="shared" si="56"/>
+        <v>39573.670488067524</v>
+      </c>
+      <c r="AT28" s="4">
+        <f t="shared" si="56"/>
+        <v>48913.056723251473</v>
+      </c>
+      <c r="AU28" s="4">
+        <f t="shared" si="56"/>
+        <v>60456.538109938847</v>
+      </c>
+      <c r="AV28" s="4">
+        <f t="shared" si="56"/>
+        <v>71610.769391222508</v>
+      </c>
+      <c r="AW28" s="4">
+        <f t="shared" si="56"/>
+        <v>81135.001720255124</v>
+      </c>
+    </row>
+    <row r="29" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
         <v>46</v>
       </c>
@@ -3632,55 +4085,67 @@
         <v>771</v>
       </c>
       <c r="X29" s="5">
-        <f t="shared" ref="X29" si="52">+T29*1.3</f>
-        <v>867.1</v>
+        <v>943</v>
       </c>
       <c r="Y29" s="5">
-        <f t="shared" ref="Y29" si="53">+U29*1.3</f>
-        <v>952.9</v>
+        <v>1161</v>
       </c>
       <c r="Z29" s="5">
-        <f t="shared" ref="Z29" si="54">+V29*1.3</f>
-        <v>1053</v>
-      </c>
-      <c r="AI29" s="4">
-        <f t="shared" si="12"/>
+        <v>1094</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>1151</v>
+      </c>
+      <c r="AB29" s="5">
+        <f>+X29*1.1</f>
+        <v>1037.3000000000002</v>
+      </c>
+      <c r="AC29" s="5">
+        <f>+Y29*1.1</f>
+        <v>1277.1000000000001</v>
+      </c>
+      <c r="AD29" s="5">
+        <f>+Z29*1.1</f>
+        <v>1203.4000000000001</v>
+      </c>
+      <c r="AO29" s="4">
+        <f t="shared" si="27"/>
         <v>3075</v>
       </c>
-      <c r="AJ29" s="4">
+      <c r="AP29" s="4">
         <f>SUM(W29:Z29)</f>
-        <v>3644</v>
-      </c>
-      <c r="AK29" s="4">
-        <f t="shared" ref="AK29:AO29" si="55">AJ29*1.02</f>
-        <v>3716.88</v>
-      </c>
-      <c r="AL29" s="4">
-        <f t="shared" si="55"/>
-        <v>3791.2176000000004</v>
-      </c>
-      <c r="AM29" s="4">
-        <f t="shared" si="55"/>
-        <v>3867.0419520000005</v>
-      </c>
-      <c r="AN29" s="4">
-        <f t="shared" si="55"/>
-        <v>3944.3827910400005</v>
-      </c>
-      <c r="AO29" s="4">
-        <f t="shared" si="55"/>
-        <v>4023.2704468608003</v>
-      </c>
-      <c r="AP29" s="4">
-        <f t="shared" ref="AP29:AQ29" si="56">AO29*1.02</f>
-        <v>4103.735855798016</v>
+        <v>3969</v>
       </c>
       <c r="AQ29" s="4">
-        <f t="shared" si="56"/>
-        <v>4185.8105729139761</v>
-      </c>
-    </row>
-    <row r="30" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AQ29:AU29" si="57">AP29*1.02</f>
+        <v>4048.38</v>
+      </c>
+      <c r="AR29" s="4">
+        <f t="shared" si="57"/>
+        <v>4129.3476000000001</v>
+      </c>
+      <c r="AS29" s="4">
+        <f t="shared" si="57"/>
+        <v>4211.9345519999997</v>
+      </c>
+      <c r="AT29" s="4">
+        <f t="shared" si="57"/>
+        <v>4296.1732430399998</v>
+      </c>
+      <c r="AU29" s="4">
+        <f t="shared" si="57"/>
+        <v>4382.0967079007996</v>
+      </c>
+      <c r="AV29" s="4">
+        <f t="shared" ref="AV29:AW29" si="58">AU29*1.02</f>
+        <v>4469.7386420588155</v>
+      </c>
+      <c r="AW29" s="4">
+        <f t="shared" si="58"/>
+        <v>4559.1334148999922</v>
+      </c>
+    </row>
+    <row r="30" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
@@ -3741,55 +4206,67 @@
         <v>1076</v>
       </c>
       <c r="X30" s="5">
-        <f t="shared" ref="W30:Z30" si="57">+T30*1.2</f>
-        <v>1153.2</v>
+        <v>1191</v>
       </c>
       <c r="Y30" s="5">
-        <f t="shared" si="57"/>
-        <v>1153.2</v>
+        <v>1253</v>
       </c>
       <c r="Z30" s="5">
-        <f t="shared" si="57"/>
-        <v>2151.3599999999997</v>
-      </c>
-      <c r="AI30" s="4">
-        <f t="shared" si="12"/>
+        <v>1280</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>1374</v>
+      </c>
+      <c r="AB30" s="5">
+        <f>+X30*1.1</f>
+        <v>1310.1000000000001</v>
+      </c>
+      <c r="AC30" s="5">
+        <f>+Y30*1.1</f>
+        <v>1378.3000000000002</v>
+      </c>
+      <c r="AD30" s="5">
+        <f>+Z30*1.1</f>
+        <v>1408</v>
+      </c>
+      <c r="AO30" s="4">
+        <f t="shared" si="27"/>
         <v>4706.8</v>
       </c>
-      <c r="AJ30" s="4">
-        <f t="shared" si="13"/>
-        <v>5533.7599999999993</v>
-      </c>
-      <c r="AK30" s="4">
-        <f>AJ30*1.02</f>
-        <v>5644.435199999999</v>
-      </c>
-      <c r="AL30" s="4">
-        <f t="shared" ref="AL30:AO30" si="58">AK30*1.02</f>
-        <v>5757.3239039999989</v>
-      </c>
-      <c r="AM30" s="4">
-        <f t="shared" si="58"/>
-        <v>5872.4703820799987</v>
-      </c>
-      <c r="AN30" s="4">
-        <f t="shared" si="58"/>
-        <v>5989.919789721599</v>
-      </c>
-      <c r="AO30" s="4">
-        <f t="shared" si="58"/>
-        <v>6109.7181855160316</v>
-      </c>
       <c r="AP30" s="4">
-        <f t="shared" ref="AP30:AQ30" si="59">AO30*1.02</f>
-        <v>6231.912549226352</v>
+        <f t="shared" si="40"/>
+        <v>4800</v>
       </c>
       <c r="AQ30" s="4">
+        <f>AP30*1.02</f>
+        <v>4896</v>
+      </c>
+      <c r="AR30" s="4">
+        <f t="shared" ref="AR30:AU30" si="59">AQ30*1.02</f>
+        <v>4993.92</v>
+      </c>
+      <c r="AS30" s="4">
         <f t="shared" si="59"/>
-        <v>6356.5508002108791</v>
-      </c>
-    </row>
-    <row r="31" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5093.7984000000006</v>
+      </c>
+      <c r="AT30" s="4">
+        <f t="shared" si="59"/>
+        <v>5195.6743680000009</v>
+      </c>
+      <c r="AU30" s="4">
+        <f t="shared" si="59"/>
+        <v>5299.5878553600014</v>
+      </c>
+      <c r="AV30" s="4">
+        <f t="shared" ref="AV30:AW30" si="60">AU30*1.02</f>
+        <v>5405.5796124672015</v>
+      </c>
+      <c r="AW30" s="4">
+        <f t="shared" si="60"/>
+        <v>5513.6912047165461</v>
+      </c>
+    </row>
+    <row r="31" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>48</v>
       </c>
@@ -3798,51 +4275,51 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5">
-        <f t="shared" ref="G31" si="60">G29+G30</f>
+        <f t="shared" ref="G31" si="61">G29+G30</f>
         <v>1044</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" ref="H31:I31" si="61">H29+H30</f>
+        <f t="shared" ref="H31:I31" si="62">H29+H30</f>
         <v>971</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>930</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" ref="J31:L31" si="62">J29+J30</f>
+        <f t="shared" ref="J31:L31" si="63">J29+J30</f>
         <v>1044</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>951</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>940</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" ref="M31:N31" si="63">M29+M30</f>
+        <f t="shared" ref="M31:N31" si="64">M29+M30</f>
         <v>1254</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1491</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" ref="O31:R31" si="64">O29+O30</f>
+        <f t="shared" ref="O31:R31" si="65">O29+O30</f>
         <v>1722</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1549</v>
       </c>
       <c r="Q31" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1605</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2234</v>
       </c>
       <c r="S31" s="5">
@@ -3858,7 +4335,7 @@
         <v>1694</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" ref="V31:Z31" si="65">V29+V30</f>
+        <f t="shared" ref="V31:AD31" si="66">V29+V30</f>
         <v>2602.8000000000002</v>
       </c>
       <c r="W31" s="5">
@@ -3866,55 +4343,71 @@
         <v>1847</v>
       </c>
       <c r="X31" s="5">
-        <f t="shared" si="65"/>
-        <v>2020.3000000000002</v>
+        <f t="shared" si="66"/>
+        <v>2134</v>
       </c>
       <c r="Y31" s="5">
-        <f t="shared" si="65"/>
-        <v>2106.1</v>
+        <f t="shared" si="66"/>
+        <v>2414</v>
       </c>
       <c r="Z31" s="5">
-        <f t="shared" si="65"/>
-        <v>3204.3599999999997</v>
-      </c>
-      <c r="AI31" s="4">
-        <f t="shared" ref="AI31" si="66">+AI29+AI30</f>
+        <f t="shared" si="66"/>
+        <v>2374</v>
+      </c>
+      <c r="AA31" s="5">
+        <f t="shared" si="66"/>
+        <v>2525</v>
+      </c>
+      <c r="AB31" s="5">
+        <f t="shared" si="66"/>
+        <v>2347.4000000000005</v>
+      </c>
+      <c r="AC31" s="5">
+        <f t="shared" si="66"/>
+        <v>2655.4000000000005</v>
+      </c>
+      <c r="AD31" s="5">
+        <f t="shared" si="66"/>
+        <v>2611.4</v>
+      </c>
+      <c r="AO31" s="4">
+        <f t="shared" ref="AO31" si="67">+AO29+AO30</f>
         <v>7781.8</v>
       </c>
-      <c r="AJ31" s="4">
-        <f>+AJ29+AJ30</f>
-        <v>9177.7599999999984</v>
-      </c>
-      <c r="AK31" s="4">
-        <f t="shared" ref="AK31:AO31" si="67">+AK29+AK30</f>
-        <v>9361.3151999999991</v>
-      </c>
-      <c r="AL31" s="4">
-        <f t="shared" si="67"/>
-        <v>9548.5415039999989</v>
-      </c>
-      <c r="AM31" s="4">
-        <f t="shared" si="67"/>
-        <v>9739.5123340799983</v>
-      </c>
-      <c r="AN31" s="4">
-        <f t="shared" si="67"/>
-        <v>9934.3025807615995</v>
-      </c>
-      <c r="AO31" s="4">
-        <f t="shared" si="67"/>
-        <v>10132.988632376831</v>
-      </c>
       <c r="AP31" s="4">
-        <f t="shared" ref="AP31" si="68">+AP29+AP30</f>
-        <v>10335.648405024367</v>
+        <f>+AP29+AP30</f>
+        <v>8769</v>
       </c>
       <c r="AQ31" s="4">
-        <f t="shared" ref="AQ31" si="69">+AQ29+AQ30</f>
-        <v>10542.361373124855</v>
-      </c>
-    </row>
-    <row r="32" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AQ31:AU31" si="68">+AQ29+AQ30</f>
+        <v>8944.380000000001</v>
+      </c>
+      <c r="AR31" s="4">
+        <f t="shared" si="68"/>
+        <v>9123.2675999999992</v>
+      </c>
+      <c r="AS31" s="4">
+        <f t="shared" si="68"/>
+        <v>9305.7329520000003</v>
+      </c>
+      <c r="AT31" s="4">
+        <f t="shared" si="68"/>
+        <v>9491.8476110400006</v>
+      </c>
+      <c r="AU31" s="4">
+        <f t="shared" si="68"/>
+        <v>9681.684563260802</v>
+      </c>
+      <c r="AV31" s="4">
+        <f t="shared" ref="AV31" si="69">+AV29+AV30</f>
+        <v>9875.318254526017</v>
+      </c>
+      <c r="AW31" s="4">
+        <f t="shared" ref="AW31" si="70">+AW29+AW30</f>
+        <v>10072.824619616538</v>
+      </c>
+    </row>
+    <row r="32" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
         <v>49</v>
       </c>
@@ -3923,51 +4416,51 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5">
-        <f t="shared" ref="G32" si="70">G28-G31</f>
+        <f t="shared" ref="G32" si="71">G28-G31</f>
         <v>-478</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" ref="H32:I32" si="71">H28-H31</f>
+        <f t="shared" ref="H32:I32" si="72">H28-H31</f>
         <v>-50</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>261</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" ref="J32:L32" si="72">J28-J31</f>
+        <f t="shared" ref="J32:L32" si="73">J28-J31</f>
         <v>347</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>283</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>327</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" ref="M32:N32" si="73">M28-M31</f>
+        <f t="shared" ref="M32:N32" si="74">M28-M31</f>
         <v>809</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>575</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" ref="O32:R32" si="74">O28-O31</f>
+        <f t="shared" ref="O32:R32" si="75">O28-O31</f>
         <v>493</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1335</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>2055</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>2613</v>
       </c>
       <c r="S32" s="5">
@@ -3983,7 +4476,7 @@
         <v>3688</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" ref="V32:Z32" si="75">V28-V31</f>
+        <f t="shared" ref="V32:AD32" si="76">V28-V31</f>
         <v>3662.7999999999984</v>
       </c>
       <c r="W32" s="5">
@@ -3991,55 +4484,71 @@
         <v>2664</v>
       </c>
       <c r="X32" s="5">
-        <f t="shared" si="75"/>
-        <v>3906.6000000000004</v>
+        <f t="shared" si="76"/>
+        <v>2399</v>
       </c>
       <c r="Y32" s="5">
-        <f t="shared" si="75"/>
-        <v>5402.8000000000011</v>
+        <f t="shared" si="76"/>
+        <v>1764</v>
       </c>
       <c r="Z32" s="5">
-        <f t="shared" si="75"/>
-        <v>5477.95</v>
-      </c>
-      <c r="AI32" s="5">
-        <f t="shared" ref="AI32:AJ32" si="76">AI28-AI31</f>
+        <f t="shared" si="76"/>
+        <v>2064</v>
+      </c>
+      <c r="AA32" s="5">
+        <f t="shared" si="76"/>
+        <v>1171</v>
+      </c>
+      <c r="AB32" s="5">
+        <f t="shared" si="76"/>
+        <v>1933.119169149827</v>
+      </c>
+      <c r="AC32" s="5">
+        <f t="shared" si="76"/>
+        <v>1539.837888800138</v>
+      </c>
+      <c r="AD32" s="5">
+        <f t="shared" si="76"/>
+        <v>1820.3546705981557</v>
+      </c>
+      <c r="AO32" s="5">
+        <f t="shared" ref="AO32:AP32" si="77">AO28-AO31</f>
         <v>12705.850000000002</v>
       </c>
-      <c r="AJ32" s="5">
-        <f t="shared" si="76"/>
-        <v>17451.350000000002</v>
-      </c>
-      <c r="AK32" s="5">
-        <f t="shared" ref="AK32:AO32" si="77">AK28-AK31</f>
-        <v>19683.431971160702</v>
-      </c>
-      <c r="AL32" s="5">
+      <c r="AP32" s="5">
         <f t="shared" si="77"/>
-        <v>34823.220315505445</v>
-      </c>
-      <c r="AM32" s="5">
-        <f t="shared" si="77"/>
-        <v>51795.053178598282</v>
-      </c>
-      <c r="AN32" s="5">
-        <f t="shared" si="77"/>
-        <v>71240.78955217576</v>
-      </c>
-      <c r="AO32" s="5">
-        <f t="shared" si="77"/>
-        <v>96138.983301280939</v>
-      </c>
-      <c r="AP32" s="5">
-        <f t="shared" ref="AP32:AQ32" si="78">AP28-AP31</f>
-        <v>122141.13644250334</v>
+        <v>8891</v>
       </c>
       <c r="AQ32" s="5">
+        <f t="shared" ref="AQ32:AU32" si="78">AQ28-AQ31</f>
+        <v>12862.931332853321</v>
+      </c>
+      <c r="AR32" s="5">
         <f t="shared" si="78"/>
-        <v>146555.08991922211</v>
-      </c>
-    </row>
-    <row r="33" spans="2:99" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>21613.563847042744</v>
+      </c>
+      <c r="AS32" s="5">
+        <f t="shared" si="78"/>
+        <v>30267.937536067526</v>
+      </c>
+      <c r="AT32" s="5">
+        <f t="shared" si="78"/>
+        <v>39421.209112211473</v>
+      </c>
+      <c r="AU32" s="5">
+        <f t="shared" si="78"/>
+        <v>50774.853546678045</v>
+      </c>
+      <c r="AV32" s="5">
+        <f t="shared" ref="AV32:AW32" si="79">AV28-AV31</f>
+        <v>61735.451136696487</v>
+      </c>
+      <c r="AW32" s="5">
+        <f t="shared" si="79"/>
+        <v>71062.177100638582</v>
+      </c>
+    </row>
+    <row r="33" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
         <v>50</v>
       </c>
@@ -4115,43 +4624,59 @@
         <f>213-29-48</f>
         <v>136</v>
       </c>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AJ33" s="4">
-        <f t="shared" si="13"/>
-        <v>136</v>
-      </c>
-      <c r="AK33" s="4">
-        <f>AJ63*$AT$46</f>
-        <v>991.03845000000013</v>
-      </c>
-      <c r="AL33" s="4">
-        <f t="shared" ref="AL33:AQ33" si="79">AK63*$AT$46</f>
-        <v>1518.2374457395979</v>
-      </c>
-      <c r="AM33" s="4">
-        <f t="shared" si="79"/>
-        <v>2444.9446186513469</v>
-      </c>
-      <c r="AN33" s="4">
-        <f t="shared" si="79"/>
-        <v>3828.0645624812123</v>
-      </c>
-      <c r="AO33" s="4">
-        <f t="shared" si="79"/>
-        <v>5742.3203424049652</v>
-      </c>
+      <c r="X33" s="5">
+        <f>238-28+328</f>
+        <v>538</v>
+      </c>
+      <c r="Y33" s="5">
+        <f>282-38+37</f>
+        <v>281</v>
+      </c>
+      <c r="Z33" s="5">
+        <f>333-61-145</f>
+        <v>127</v>
+      </c>
+      <c r="AA33" s="5">
+        <f>350-76+108</f>
+        <v>382</v>
+      </c>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
       <c r="AP33" s="4">
-        <f t="shared" si="79"/>
-        <v>8340.2935853189556</v>
+        <f t="shared" si="40"/>
+        <v>1082</v>
       </c>
       <c r="AQ33" s="4">
-        <f t="shared" si="79"/>
-        <v>11667.570051028424</v>
-      </c>
-    </row>
-    <row r="34" spans="2:99" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f>AP63*$AZ$46</f>
+        <v>874.02</v>
+      </c>
+      <c r="AR33" s="4">
+        <f t="shared" ref="AR33:AW33" si="80">AQ63*$AZ$46</f>
+        <v>1224.3122589877596</v>
+      </c>
+      <c r="AS33" s="4">
+        <f t="shared" si="80"/>
+        <v>1806.6780996915375</v>
+      </c>
+      <c r="AT33" s="4">
+        <f t="shared" si="80"/>
+        <v>2624.5807984033931</v>
+      </c>
+      <c r="AU33" s="4">
+        <f t="shared" si="80"/>
+        <v>3696.7484411240725</v>
+      </c>
+      <c r="AV33" s="4">
+        <f t="shared" si="80"/>
+        <v>5085.7742918130261</v>
+      </c>
+      <c r="AW33" s="4">
+        <f t="shared" si="80"/>
+        <v>6789.7155402400185</v>
+      </c>
+    </row>
+    <row r="34" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
         <v>51</v>
       </c>
@@ -4160,51 +4685,51 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5">
-        <f t="shared" ref="G34:N34" si="80">G32+G33</f>
+        <f t="shared" ref="G34:N34" si="81">G32+G33</f>
         <v>-601</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-253</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>176</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>160</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>70</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>150</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>555</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>379</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" ref="O34:R34" si="81">O32+O33</f>
+        <f t="shared" ref="O34:R34" si="82">O32+O33</f>
         <v>432</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1316</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1933</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>2635</v>
       </c>
       <c r="S34" s="5">
@@ -4220,59 +4745,75 @@
         <v>3636</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" ref="V34:Z34" si="82">V32+V33</f>
+        <f t="shared" ref="V34:AD34" si="83">V32+V33</f>
         <v>3744.7999999999984</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>2800</v>
       </c>
       <c r="X34" s="5">
-        <f t="shared" si="82"/>
-        <v>3906.6000000000004</v>
+        <f t="shared" si="83"/>
+        <v>2937</v>
       </c>
       <c r="Y34" s="5">
-        <f t="shared" si="82"/>
-        <v>5402.8000000000011</v>
+        <f t="shared" si="83"/>
+        <v>2045</v>
       </c>
       <c r="Z34" s="5">
-        <f t="shared" si="82"/>
-        <v>5477.95</v>
-      </c>
-      <c r="AJ34" s="4">
-        <f>+AJ32+AJ33</f>
-        <v>17587.350000000002</v>
-      </c>
-      <c r="AK34" s="4">
-        <f t="shared" ref="AK34:AO34" si="83">+AK32+AK33</f>
-        <v>20674.470421160702</v>
-      </c>
-      <c r="AL34" s="4">
         <f t="shared" si="83"/>
-        <v>36341.457761245045</v>
-      </c>
-      <c r="AM34" s="4">
+        <v>2191</v>
+      </c>
+      <c r="AA34" s="5">
         <f t="shared" si="83"/>
-        <v>54239.997797249627</v>
-      </c>
-      <c r="AN34" s="4">
+        <v>1553</v>
+      </c>
+      <c r="AB34" s="5">
         <f t="shared" si="83"/>
-        <v>75068.854114656977</v>
-      </c>
-      <c r="AO34" s="4">
+        <v>1933.119169149827</v>
+      </c>
+      <c r="AC34" s="5">
         <f t="shared" si="83"/>
-        <v>101881.30364368591</v>
+        <v>1539.837888800138</v>
+      </c>
+      <c r="AD34" s="5">
+        <f t="shared" si="83"/>
+        <v>1820.3546705981557</v>
       </c>
       <c r="AP34" s="4">
-        <f t="shared" ref="AP34" si="84">+AP32+AP33</f>
-        <v>130481.43002782229</v>
+        <f>+AP32+AP33</f>
+        <v>9973</v>
       </c>
       <c r="AQ34" s="4">
-        <f t="shared" ref="AQ34" si="85">+AQ32+AQ33</f>
-        <v>158222.65997025053</v>
-      </c>
-    </row>
-    <row r="35" spans="2:99" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AQ34:AU34" si="84">+AQ32+AQ33</f>
+        <v>13736.951332853321</v>
+      </c>
+      <c r="AR34" s="4">
+        <f t="shared" si="84"/>
+        <v>22837.876106030504</v>
+      </c>
+      <c r="AS34" s="4">
+        <f t="shared" si="84"/>
+        <v>32074.615635759063</v>
+      </c>
+      <c r="AT34" s="4">
+        <f t="shared" si="84"/>
+        <v>42045.789910614869</v>
+      </c>
+      <c r="AU34" s="4">
+        <f t="shared" si="84"/>
+        <v>54471.601987802118</v>
+      </c>
+      <c r="AV34" s="4">
+        <f t="shared" ref="AV34" si="85">+AV32+AV33</f>
+        <v>66821.225428509511</v>
+      </c>
+      <c r="AW34" s="4">
+        <f t="shared" ref="AW34" si="86">+AW32+AW33</f>
+        <v>77851.892640878606</v>
+      </c>
+    </row>
+    <row r="35" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="4" t="s">
         <v>52</v>
       </c>
@@ -4343,54 +4884,70 @@
         <v>276</v>
       </c>
       <c r="W35" s="5">
-        <v>261</v>
+        <f>261+26</f>
+        <v>287</v>
       </c>
       <c r="X35" s="5">
-        <f t="shared" ref="W35:Z35" si="86">+X34*0.1</f>
-        <v>390.66000000000008</v>
+        <f>323-89</f>
+        <v>234</v>
       </c>
       <c r="Y35" s="5">
-        <f t="shared" si="86"/>
-        <v>540.28000000000009</v>
+        <f>167+25</f>
+        <v>192</v>
       </c>
       <c r="Z35" s="5">
-        <f t="shared" si="86"/>
-        <v>547.79499999999996</v>
-      </c>
-      <c r="AJ35" s="4">
-        <f t="shared" si="13"/>
-        <v>1739.7350000000001</v>
-      </c>
-      <c r="AK35" s="4">
-        <f>AK34*0.15</f>
-        <v>3101.1705631741052</v>
-      </c>
-      <c r="AL35" s="4">
-        <f t="shared" ref="AL35:AO35" si="87">AL34*0.15</f>
-        <v>5451.2186641867565</v>
-      </c>
-      <c r="AM35" s="4">
+        <v>15</v>
+      </c>
+      <c r="AA35" s="5">
+        <f>409+15</f>
+        <v>424</v>
+      </c>
+      <c r="AB35" s="5">
+        <f>+AB34*0.2</f>
+        <v>386.62383382996541</v>
+      </c>
+      <c r="AC35" s="5">
+        <f>+AC34*0.2</f>
+        <v>307.96757776002761</v>
+      </c>
+      <c r="AD35" s="5">
+        <f>+AD34*0.2</f>
+        <v>364.07093411963115</v>
+      </c>
+      <c r="AP35" s="4">
+        <f t="shared" si="40"/>
+        <v>728</v>
+      </c>
+      <c r="AQ35" s="4">
+        <f>AQ34*0.15</f>
+        <v>2060.542699927998</v>
+      </c>
+      <c r="AR35" s="4">
+        <f t="shared" ref="AR35:AU35" si="87">AR34*0.15</f>
+        <v>3425.6814159045757</v>
+      </c>
+      <c r="AS35" s="4">
         <f t="shared" si="87"/>
-        <v>8135.9996695874433</v>
-      </c>
-      <c r="AN35" s="4">
+        <v>4811.1923453638592</v>
+      </c>
+      <c r="AT35" s="4">
         <f t="shared" si="87"/>
-        <v>11260.328117198545</v>
-      </c>
-      <c r="AO35" s="4">
+        <v>6306.8684865922305</v>
+      </c>
+      <c r="AU35" s="4">
         <f t="shared" si="87"/>
-        <v>15282.195546552886</v>
-      </c>
-      <c r="AP35" s="4">
-        <f t="shared" ref="AP35" si="88">AP34*0.15</f>
-        <v>19572.214504173342</v>
-      </c>
-      <c r="AQ35" s="4">
-        <f t="shared" ref="AQ35" si="89">AQ34*0.15</f>
-        <v>23733.39899553758</v>
-      </c>
-    </row>
-    <row r="36" spans="2:99" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>8170.7402981703171</v>
+      </c>
+      <c r="AV35" s="4">
+        <f t="shared" ref="AV35" si="88">AV34*0.15</f>
+        <v>10023.183814276426</v>
+      </c>
+      <c r="AW35" s="4">
+        <f t="shared" ref="AW35" si="89">AW34*0.15</f>
+        <v>11677.78389613179</v>
+      </c>
+    </row>
+    <row r="36" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>53</v>
       </c>
@@ -4459,283 +5016,299 @@
         <v>3331</v>
       </c>
       <c r="V36" s="5">
-        <f t="shared" ref="V36:Z36" si="92">V34-V35</f>
+        <f t="shared" ref="V36:AD36" si="92">V34-V35</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W36" s="5">
         <f t="shared" si="92"/>
-        <v>2539</v>
+        <v>2513</v>
       </c>
       <c r="X36" s="5">
         <f t="shared" si="92"/>
-        <v>3515.9400000000005</v>
+        <v>2703</v>
       </c>
       <c r="Y36" s="5">
         <f t="shared" si="92"/>
-        <v>4862.5200000000013</v>
+        <v>1853</v>
       </c>
       <c r="Z36" s="5">
         <f t="shared" si="92"/>
-        <v>4930.1549999999997</v>
-      </c>
-      <c r="AJ36" s="4">
-        <f>+AJ34-AJ35</f>
-        <v>15847.615000000002</v>
-      </c>
-      <c r="AK36" s="4">
-        <f t="shared" ref="AK36:AO36" si="93">+AK34-AK35</f>
-        <v>17573.299857986596</v>
-      </c>
-      <c r="AL36" s="4">
+        <v>2176</v>
+      </c>
+      <c r="AA36" s="5">
+        <f t="shared" si="92"/>
+        <v>1129</v>
+      </c>
+      <c r="AB36" s="5">
+        <f t="shared" si="92"/>
+        <v>1546.4953353198616</v>
+      </c>
+      <c r="AC36" s="5">
+        <f t="shared" si="92"/>
+        <v>1231.8703110401104</v>
+      </c>
+      <c r="AD36" s="5">
+        <f t="shared" si="92"/>
+        <v>1456.2837364785246</v>
+      </c>
+      <c r="AP36" s="4">
+        <f>+AP34-AP35</f>
+        <v>9245</v>
+      </c>
+      <c r="AQ36" s="4">
+        <f t="shared" ref="AQ36:AU36" si="93">+AQ34-AQ35</f>
+        <v>11676.408632925322</v>
+      </c>
+      <c r="AR36" s="4">
         <f t="shared" si="93"/>
-        <v>30890.239097058289</v>
-      </c>
-      <c r="AM36" s="4">
+        <v>19412.194690125929</v>
+      </c>
+      <c r="AS36" s="4">
         <f t="shared" si="93"/>
-        <v>46103.998127662184</v>
-      </c>
-      <c r="AN36" s="4">
+        <v>27263.423290395203</v>
+      </c>
+      <c r="AT36" s="4">
         <f t="shared" si="93"/>
-        <v>63808.525997458433</v>
-      </c>
-      <c r="AO36" s="4">
+        <v>35738.921424022636</v>
+      </c>
+      <c r="AU36" s="4">
         <f t="shared" si="93"/>
-        <v>86599.108097133023</v>
-      </c>
-      <c r="AP36" s="4">
-        <f t="shared" ref="AP36" si="94">+AP34-AP35</f>
-        <v>110909.21552364895</v>
-      </c>
-      <c r="AQ36" s="4">
-        <f t="shared" ref="AQ36" si="95">+AQ34-AQ35</f>
-        <v>134489.26097471296</v>
-      </c>
-      <c r="AR36" s="4">
-        <f>AQ36*(1+$AT$43)</f>
-        <v>133144.36836496583</v>
-      </c>
-      <c r="AS36" s="4">
-        <f t="shared" ref="AS36:CU36" si="96">AR36*(1+$AT$43)</f>
-        <v>131812.92468131619</v>
-      </c>
-      <c r="AT36" s="4">
-        <f t="shared" si="96"/>
-        <v>130494.79543450303</v>
-      </c>
-      <c r="AU36" s="4">
-        <f t="shared" si="96"/>
-        <v>129189.847480158</v>
+        <v>46300.861689631798</v>
       </c>
       <c r="AV36" s="4">
-        <f t="shared" si="96"/>
-        <v>127897.94900535642</v>
+        <f t="shared" ref="AV36" si="94">+AV34-AV35</f>
+        <v>56798.041614233087</v>
       </c>
       <c r="AW36" s="4">
-        <f t="shared" si="96"/>
-        <v>126618.96951530286</v>
+        <f t="shared" ref="AW36" si="95">+AW34-AW35</f>
+        <v>66174.108744746816</v>
       </c>
       <c r="AX36" s="4">
-        <f t="shared" si="96"/>
-        <v>125352.77982014982</v>
+        <f>AW36*(1+$AZ$43)</f>
+        <v>65512.36765729935</v>
       </c>
       <c r="AY36" s="4">
-        <f t="shared" si="96"/>
-        <v>124099.25202194833</v>
+        <f t="shared" ref="AY36:DA36" si="96">AX36*(1+$AZ$43)</f>
+        <v>64857.243980726358</v>
       </c>
       <c r="AZ36" s="4">
         <f t="shared" si="96"/>
-        <v>122858.25950172884</v>
+        <v>64208.671540919095</v>
       </c>
       <c r="BA36" s="4">
         <f t="shared" si="96"/>
-        <v>121629.67690671155</v>
+        <v>63566.584825509904</v>
       </c>
       <c r="BB36" s="4">
         <f t="shared" si="96"/>
-        <v>120413.38013764443</v>
+        <v>62930.918977254805</v>
       </c>
       <c r="BC36" s="4">
         <f t="shared" si="96"/>
-        <v>119209.24633626798</v>
+        <v>62301.609787482259</v>
       </c>
       <c r="BD36" s="4">
         <f t="shared" si="96"/>
-        <v>118017.1538729053</v>
+        <v>61678.593689607434</v>
       </c>
       <c r="BE36" s="4">
         <f t="shared" si="96"/>
-        <v>116836.98233417624</v>
+        <v>61061.807752711356</v>
       </c>
       <c r="BF36" s="4">
         <f t="shared" si="96"/>
-        <v>115668.61251083447</v>
+        <v>60451.189675184243</v>
       </c>
       <c r="BG36" s="4">
         <f t="shared" si="96"/>
-        <v>114511.92638572612</v>
+        <v>59846.6777784324</v>
       </c>
       <c r="BH36" s="4">
         <f t="shared" si="96"/>
-        <v>113366.80712186886</v>
+        <v>59248.211000648073</v>
       </c>
       <c r="BI36" s="4">
         <f t="shared" si="96"/>
-        <v>112233.13905065016</v>
+        <v>58655.728890641592</v>
       </c>
       <c r="BJ36" s="4">
         <f t="shared" si="96"/>
-        <v>111110.80766014366</v>
+        <v>58069.171601735179</v>
       </c>
       <c r="BK36" s="4">
         <f t="shared" si="96"/>
-        <v>109999.69958354223</v>
+        <v>57488.479885717825</v>
       </c>
       <c r="BL36" s="4">
         <f t="shared" si="96"/>
-        <v>108899.70258770681</v>
+        <v>56913.595086860645</v>
       </c>
       <c r="BM36" s="4">
         <f t="shared" si="96"/>
-        <v>107810.70556182975</v>
+        <v>56344.459135992038</v>
       </c>
       <c r="BN36" s="4">
         <f t="shared" si="96"/>
-        <v>106732.59850621145</v>
+        <v>55781.014544632118</v>
       </c>
       <c r="BO36" s="4">
         <f t="shared" si="96"/>
-        <v>105665.27252114934</v>
+        <v>55223.204399185794</v>
       </c>
       <c r="BP36" s="4">
         <f t="shared" si="96"/>
-        <v>104608.61979593785</v>
+        <v>54670.972355193939</v>
       </c>
       <c r="BQ36" s="4">
         <f t="shared" si="96"/>
-        <v>103562.53359797847</v>
+        <v>54124.262631641999</v>
       </c>
       <c r="BR36" s="4">
         <f t="shared" si="96"/>
-        <v>102526.90826199869</v>
+        <v>53583.020005325576</v>
       </c>
       <c r="BS36" s="4">
         <f t="shared" si="96"/>
-        <v>101501.6391793787</v>
+        <v>53047.189805272319</v>
       </c>
       <c r="BT36" s="4">
         <f t="shared" si="96"/>
-        <v>100486.62278758491</v>
+        <v>52516.717907219594</v>
       </c>
       <c r="BU36" s="4">
         <f t="shared" si="96"/>
-        <v>99481.756559709058</v>
+        <v>51991.550728147398</v>
       </c>
       <c r="BV36" s="4">
         <f t="shared" si="96"/>
-        <v>98486.938994111973</v>
+        <v>51471.635220865923</v>
       </c>
       <c r="BW36" s="4">
         <f t="shared" si="96"/>
-        <v>97502.069604170858</v>
+        <v>50956.91886865726</v>
       </c>
       <c r="BX36" s="4">
         <f t="shared" si="96"/>
-        <v>96527.048908129145</v>
+        <v>50447.349679970685</v>
       </c>
       <c r="BY36" s="4">
         <f t="shared" si="96"/>
-        <v>95561.778419047856</v>
+        <v>49942.876183170978</v>
       </c>
       <c r="BZ36" s="4">
         <f t="shared" si="96"/>
-        <v>94606.16063485737</v>
+        <v>49443.447421339268</v>
       </c>
       <c r="CA36" s="4">
         <f t="shared" si="96"/>
-        <v>93660.09902850879</v>
+        <v>48949.012947125877</v>
       </c>
       <c r="CB36" s="4">
         <f t="shared" si="96"/>
-        <v>92723.498038223697</v>
+        <v>48459.522817654615</v>
       </c>
       <c r="CC36" s="4">
         <f t="shared" si="96"/>
-        <v>91796.263057841454</v>
+        <v>47974.927589478066</v>
       </c>
       <c r="CD36" s="4">
         <f t="shared" si="96"/>
-        <v>90878.300427263035</v>
+        <v>47495.178313583281</v>
       </c>
       <c r="CE36" s="4">
         <f t="shared" si="96"/>
-        <v>89969.517422990408</v>
+        <v>47020.226530447449</v>
       </c>
       <c r="CF36" s="4">
         <f t="shared" si="96"/>
-        <v>89069.822248760509</v>
+        <v>46550.024265142973</v>
       </c>
       <c r="CG36" s="4">
         <f t="shared" si="96"/>
-        <v>88179.124026272897</v>
+        <v>46084.52402249154</v>
       </c>
       <c r="CH36" s="4">
         <f t="shared" si="96"/>
-        <v>87297.332786010171</v>
+        <v>45623.678782266623</v>
       </c>
       <c r="CI36" s="4">
         <f t="shared" si="96"/>
-        <v>86424.359458150066</v>
+        <v>45167.441994443958</v>
       </c>
       <c r="CJ36" s="4">
         <f t="shared" si="96"/>
-        <v>85560.115863568557</v>
+        <v>44715.767574499521</v>
       </c>
       <c r="CK36" s="4">
         <f t="shared" si="96"/>
-        <v>84704.514704932866</v>
+        <v>44268.609898754527</v>
       </c>
       <c r="CL36" s="4">
         <f t="shared" si="96"/>
-        <v>83857.469557883538</v>
+        <v>43825.923799766984</v>
       </c>
       <c r="CM36" s="4">
         <f t="shared" si="96"/>
-        <v>83018.894862304704</v>
+        <v>43387.664561769314</v>
       </c>
       <c r="CN36" s="4">
         <f t="shared" si="96"/>
-        <v>82188.705913681653</v>
+        <v>42953.787916151618</v>
       </c>
       <c r="CO36" s="4">
         <f t="shared" si="96"/>
-        <v>81366.818854544836</v>
+        <v>42524.250036990103</v>
       </c>
       <c r="CP36" s="4">
         <f t="shared" si="96"/>
-        <v>80553.15066599939</v>
+        <v>42099.0075366202</v>
       </c>
       <c r="CQ36" s="4">
         <f t="shared" si="96"/>
-        <v>79747.619159339389</v>
+        <v>41678.017461253999</v>
       </c>
       <c r="CR36" s="4">
         <f t="shared" si="96"/>
-        <v>78950.142967745996</v>
+        <v>41261.237286641459</v>
       </c>
       <c r="CS36" s="4">
         <f t="shared" si="96"/>
-        <v>78160.641538068536</v>
+        <v>40848.624913775042</v>
       </c>
       <c r="CT36" s="4">
         <f t="shared" si="96"/>
-        <v>77379.035122687856</v>
+        <v>40440.138664637292</v>
       </c>
       <c r="CU36" s="4">
         <f t="shared" si="96"/>
-        <v>76605.244771460973</v>
-      </c>
-    </row>
-    <row r="37" spans="2:99" x14ac:dyDescent="0.2">
+        <v>40035.73727799092</v>
+      </c>
+      <c r="CV36" s="4">
+        <f t="shared" si="96"/>
+        <v>39635.379905211012</v>
+      </c>
+      <c r="CW36" s="4">
+        <f t="shared" si="96"/>
+        <v>39239.026106158904</v>
+      </c>
+      <c r="CX36" s="4">
+        <f t="shared" si="96"/>
+        <v>38846.635845097313</v>
+      </c>
+      <c r="CY36" s="4">
+        <f t="shared" si="96"/>
+        <v>38458.169486646337</v>
+      </c>
+      <c r="CZ36" s="4">
+        <f t="shared" si="96"/>
+        <v>38073.587791779872</v>
+      </c>
+      <c r="DA36" s="4">
+        <f t="shared" si="96"/>
+        <v>37692.851913862076</v>
+      </c>
+    </row>
+    <row r="37" spans="2:105" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>54</v>
       </c>
@@ -4804,59 +5377,75 @@
         <v>0.96049596309111884</v>
       </c>
       <c r="V37" s="3">
-        <f t="shared" ref="V37:Z37" si="104">V36/V38</f>
+        <f t="shared" ref="V37:AD37" si="104">V36/V38</f>
         <v>0.99936617689426632</v>
       </c>
       <c r="W37" s="3">
         <f t="shared" si="104"/>
-        <v>0.73212226066897346</v>
+        <v>0.7246251441753172</v>
       </c>
       <c r="X37" s="3">
         <f t="shared" si="104"/>
-        <v>1.0138235294117648</v>
+        <v>0.77717078780908566</v>
       </c>
       <c r="Y37" s="3">
         <f t="shared" si="104"/>
-        <v>1.402110726643599</v>
+        <v>0.53048955052963065</v>
       </c>
       <c r="Z37" s="3">
         <f t="shared" si="104"/>
-        <v>1.4216133217993079</v>
-      </c>
-      <c r="AJ37" s="21">
-        <f>+AJ36/AJ38</f>
-        <v>4.5696698385236454</v>
-      </c>
-      <c r="AK37" s="21">
-        <f t="shared" ref="AK37:AO37" si="105">+AK36/AK38</f>
-        <v>5.0672721620491918</v>
-      </c>
-      <c r="AL37" s="21">
+        <v>0.62313860252004583</v>
+      </c>
+      <c r="AA37" s="3">
+        <f t="shared" si="104"/>
+        <v>0.32405281285878301</v>
+      </c>
+      <c r="AB37" s="3">
+        <f t="shared" si="104"/>
+        <v>0.44388499865667669</v>
+      </c>
+      <c r="AC37" s="3">
+        <f t="shared" si="104"/>
+        <v>0.35357930856489966</v>
+      </c>
+      <c r="AD37" s="3">
+        <f t="shared" si="104"/>
+        <v>0.41799188762299788</v>
+      </c>
+      <c r="AP37" s="21">
+        <f>+AP36/AP38</f>
+        <v>2.6545115210681214</v>
+      </c>
+      <c r="AQ37" s="21">
+        <f t="shared" ref="AQ37:AU37" si="105">+AQ36/AQ38</f>
+        <v>3.3526404803460834</v>
+      </c>
+      <c r="AR37" s="21">
         <f t="shared" si="105"/>
-        <v>8.9072200395208441</v>
-      </c>
-      <c r="AM37" s="21">
+        <v>5.5738122719477223</v>
+      </c>
+      <c r="AS37" s="21">
         <f t="shared" si="105"/>
-        <v>13.294117107169026</v>
-      </c>
-      <c r="AN37" s="21">
+        <v>7.8281310143981635</v>
+      </c>
+      <c r="AT37" s="21">
         <f t="shared" si="105"/>
-        <v>18.399228949670828</v>
-      </c>
-      <c r="AO37" s="21">
+        <v>10.261695908125084</v>
+      </c>
+      <c r="AU37" s="21">
         <f t="shared" si="105"/>
-        <v>24.970907755805371</v>
-      </c>
-      <c r="AP37" s="21">
-        <f t="shared" ref="AP37" si="106">+AP36/AP38</f>
-        <v>31.980742653878014</v>
-      </c>
-      <c r="AQ37" s="21">
-        <f t="shared" ref="AQ37" si="107">+AQ36/AQ38</f>
-        <v>38.780063718198662</v>
-      </c>
-    </row>
-    <row r="38" spans="2:99" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>13.294339728556974</v>
+      </c>
+      <c r="AV37" s="21">
+        <f t="shared" ref="AV37" si="106">+AV36/AV38</f>
+        <v>16.30838894960393</v>
+      </c>
+      <c r="AW37" s="21">
+        <f t="shared" ref="AW37" si="107">+AW36/AW38</f>
+        <v>19.000533700307749</v>
+      </c>
+    </row>
+    <row r="38" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
         <v>1</v>
       </c>
@@ -4921,51 +5510,63 @@
         <v>3468</v>
       </c>
       <c r="X38" s="5">
-        <f t="shared" ref="W38:Z38" si="108">+W38</f>
-        <v>3468</v>
+        <v>3478</v>
       </c>
       <c r="Y38" s="5">
+        <v>3493</v>
+      </c>
+      <c r="Z38" s="5">
+        <v>3492</v>
+      </c>
+      <c r="AA38" s="5">
+        <v>3484</v>
+      </c>
+      <c r="AB38" s="5">
+        <f>+AA38</f>
+        <v>3484</v>
+      </c>
+      <c r="AC38" s="5">
+        <f>+AB38</f>
+        <v>3484</v>
+      </c>
+      <c r="AD38" s="5">
+        <f>+AC38</f>
+        <v>3484</v>
+      </c>
+      <c r="AP38" s="4">
+        <f>AVERAGE(W38:Z38)</f>
+        <v>3482.75</v>
+      </c>
+      <c r="AQ38" s="4">
+        <f>AP38</f>
+        <v>3482.75</v>
+      </c>
+      <c r="AR38" s="4">
+        <f t="shared" ref="AR38:AU38" si="108">AQ38</f>
+        <v>3482.75</v>
+      </c>
+      <c r="AS38" s="4">
         <f t="shared" si="108"/>
-        <v>3468</v>
-      </c>
-      <c r="Z38" s="5">
+        <v>3482.75</v>
+      </c>
+      <c r="AT38" s="4">
         <f t="shared" si="108"/>
-        <v>3468</v>
-      </c>
-      <c r="AJ38" s="4">
-        <f>AVERAGE(W38:Z38)</f>
-        <v>3468</v>
-      </c>
-      <c r="AK38" s="4">
-        <f>AJ38</f>
-        <v>3468</v>
-      </c>
-      <c r="AL38" s="4">
-        <f t="shared" ref="AL38:AO38" si="109">AK38</f>
-        <v>3468</v>
-      </c>
-      <c r="AM38" s="4">
+        <v>3482.75</v>
+      </c>
+      <c r="AU38" s="4">
+        <f t="shared" si="108"/>
+        <v>3482.75</v>
+      </c>
+      <c r="AV38" s="4">
+        <f t="shared" ref="AV38:AW38" si="109">AU38</f>
+        <v>3482.75</v>
+      </c>
+      <c r="AW38" s="4">
         <f t="shared" si="109"/>
-        <v>3468</v>
-      </c>
-      <c r="AN38" s="4">
-        <f t="shared" si="109"/>
-        <v>3468</v>
-      </c>
-      <c r="AO38" s="4">
-        <f t="shared" si="109"/>
-        <v>3468</v>
-      </c>
-      <c r="AP38" s="4">
-        <f t="shared" ref="AP38:AQ38" si="110">AO38</f>
-        <v>3468</v>
-      </c>
-      <c r="AQ38" s="4">
-        <f t="shared" si="110"/>
-        <v>3468</v>
-      </c>
-    </row>
-    <row r="40" spans="2:99" s="25" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3482.75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:105" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="25" t="s">
         <v>89</v>
       </c>
@@ -4982,35 +5583,35 @@
         <v>0.31799163179916312</v>
       </c>
       <c r="L40" s="23">
-        <f t="shared" ref="L40" si="111">L20/H20-1</f>
+        <f t="shared" ref="L40" si="110">L20/H20-1</f>
         <v>-4.9448818897637747E-2</v>
       </c>
       <c r="M40" s="23">
-        <f t="shared" ref="M40" si="112">M20/I20-1</f>
+        <f t="shared" ref="M40" si="111">M20/I20-1</f>
         <v>0.39155957480564818</v>
       </c>
       <c r="N40" s="23">
-        <f t="shared" ref="N40" si="113">N20/J20-1</f>
+        <f t="shared" ref="N40" si="112">N20/J20-1</f>
         <v>0.45503791982665232</v>
       </c>
       <c r="O40" s="23">
-        <f t="shared" ref="O40" si="114">O20/K20-1</f>
+        <f t="shared" ref="O40" si="113">O20/K20-1</f>
         <v>0.73583959899749374</v>
       </c>
       <c r="P40" s="23">
-        <f t="shared" ref="P40:Q40" si="115">P20/L20-1</f>
+        <f t="shared" ref="P40:Q40" si="114">P20/L20-1</f>
         <v>0.98111332007952279</v>
       </c>
       <c r="Q40" s="23">
+        <f t="shared" si="114"/>
+        <v>0.56846425721126437</v>
+      </c>
+      <c r="R40" s="23">
+        <f t="shared" ref="R40:S40" si="115">R20/N20-1</f>
+        <v>0.64919955323901712</v>
+      </c>
+      <c r="S40" s="23">
         <f t="shared" si="115"/>
-        <v>0.56846425721126437</v>
-      </c>
-      <c r="R40" s="23">
-        <f t="shared" ref="R40:S40" si="116">R20/N20-1</f>
-        <v>0.64919955323901712</v>
-      </c>
-      <c r="S40" s="23">
-        <f t="shared" si="116"/>
         <v>0.80537106555010096</v>
       </c>
       <c r="T40" s="23">
@@ -5026,67 +5627,107 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="W40" s="23">
-        <f t="shared" ref="W40:Z40" si="117">W20/S20-1</f>
+        <f t="shared" ref="W40:AD40" si="116">W20/S20-1</f>
         <v>0.24381531243335464</v>
       </c>
       <c r="X40" s="23">
+        <f t="shared" si="116"/>
+        <v>0.47200897602456604</v>
+      </c>
+      <c r="Y40" s="23">
+        <f t="shared" si="116"/>
+        <v>8.8375128181224838E-2</v>
+      </c>
+      <c r="Z40" s="23">
+        <f t="shared" si="116"/>
+        <v>1.452839163770947E-2</v>
+      </c>
+      <c r="AA40" s="23">
+        <f t="shared" si="116"/>
+        <v>-8.6930429936988296E-2</v>
+      </c>
+      <c r="AB40" s="23">
+        <f t="shared" si="116"/>
+        <v>0.13406324310983453</v>
+      </c>
+      <c r="AC40" s="23">
+        <f t="shared" si="116"/>
+        <v>0.12948976125628553</v>
+      </c>
+      <c r="AD40" s="23">
+        <f t="shared" si="116"/>
+        <v>0.13521798932415607</v>
+      </c>
+      <c r="AG40" s="27">
+        <f t="shared" ref="AG40:AI40" si="117">AG20/AF20-1</f>
+        <v>0.58845907814070664</v>
+      </c>
+      <c r="AH40" s="27">
         <f t="shared" si="117"/>
-        <v>0.40000000000000013</v>
-      </c>
-      <c r="Y40" s="23">
+        <v>0.26503272306147285</v>
+      </c>
+      <c r="AI40" s="27">
         <f t="shared" si="117"/>
-        <v>0.40000000000000013</v>
-      </c>
-      <c r="Z40" s="23">
-        <f t="shared" si="117"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="AG40" s="27">
-        <f>+AG20/AF20-1</f>
+        <v>0.73012574069611524</v>
+      </c>
+      <c r="AJ40" s="27">
+        <f>AJ20/AI20-1</f>
+        <v>0.67978989539054413</v>
+      </c>
+      <c r="AK40" s="27">
+        <f>AK20/AJ20-1</f>
+        <v>0.82513159773516764</v>
+      </c>
+      <c r="AL40" s="27">
+        <f>AL20/AK20-1</f>
+        <v>0.14522590184326489</v>
+      </c>
+      <c r="AM40" s="27">
+        <f>+AM20/AL20-1</f>
         <v>0.28309870615998056</v>
       </c>
-      <c r="AH40" s="27">
-        <f>+AH20/AG20-1</f>
+      <c r="AN40" s="27">
+        <f>+AN20/AM20-1</f>
         <v>0.70671613394216126</v>
       </c>
-      <c r="AI40" s="27">
-        <f>+AI20/AH20-1</f>
+      <c r="AO40" s="27">
+        <f>+AO20/AN20-1</f>
         <v>0.52259442989056737</v>
       </c>
-      <c r="AJ40" s="27">
-        <f>+AJ20/AI20-1</f>
-        <v>0.36425407501592399</v>
-      </c>
-      <c r="AK40" s="27">
-        <f t="shared" ref="AK40:AO40" si="118">+AK20/AJ20-1</f>
-        <v>0.23152290088009764</v>
-      </c>
-      <c r="AL40" s="27">
+      <c r="AP40" s="27">
+        <f>+AP20/AO20-1</f>
+        <v>0.18086993871917945</v>
+      </c>
+      <c r="AQ40" s="27">
+        <f t="shared" ref="AQ40:AU40" si="118">+AQ20/AP20-1</f>
+        <v>0.18602629663740111</v>
+      </c>
+      <c r="AR40" s="27">
         <f t="shared" si="118"/>
-        <v>0.33899999999999997</v>
-      </c>
-      <c r="AM40" s="27">
+        <v>0.33900000000000019</v>
+      </c>
+      <c r="AS40" s="27">
         <f t="shared" si="118"/>
         <v>0.28749999999999987</v>
       </c>
-      <c r="AN40" s="27">
+      <c r="AT40" s="27">
+        <f t="shared" si="118"/>
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AU40" s="27">
         <f t="shared" si="118"/>
         <v>0.23600000000000021</v>
       </c>
-      <c r="AO40" s="27">
-        <f t="shared" si="118"/>
-        <v>0.23599999999999977</v>
-      </c>
-      <c r="AP40" s="27">
-        <f t="shared" ref="AP40:AQ40" si="119">+AP20/AO20-1</f>
-        <v>0.18450000000000011</v>
-      </c>
-      <c r="AQ40" s="27">
+      <c r="AV40" s="27">
+        <f t="shared" ref="AV40:AW40" si="119">+AV20/AU20-1</f>
+        <v>0.18449999999999966</v>
+      </c>
+      <c r="AW40" s="27">
         <f t="shared" si="119"/>
         <v>0.13300000000000023</v>
       </c>
     </row>
-    <row r="41" spans="2:99" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:105" x14ac:dyDescent="0.15">
       <c r="B41" s="22" t="s">
         <v>92</v>
       </c>
@@ -5142,180 +5783,221 @@
         <f>+W5/S5-1</f>
         <v>0.36390171844359576</v>
       </c>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AG41" s="28">
-        <f>+AG5/AF5-1</f>
+      <c r="X41" s="17">
+        <f t="shared" ref="X41:AD41" si="128">+X5/T5-1</f>
+        <v>0.83018904964761764</v>
+      </c>
+      <c r="Y41" s="17">
+        <f t="shared" si="128"/>
+        <v>0.26533170462146982</v>
+      </c>
+      <c r="Z41" s="17">
+        <f t="shared" si="128"/>
+        <v>0.19549297025745282</v>
+      </c>
+      <c r="AA41" s="17">
+        <f t="shared" si="128"/>
+        <v>-8.5285249778303318E-2</v>
+      </c>
+      <c r="AB41" s="17">
+        <f t="shared" si="128"/>
+        <v>0.10824859484275118</v>
+      </c>
+      <c r="AC41" s="17">
+        <f t="shared" si="128"/>
+        <v>0.10734842860393656</v>
+      </c>
+      <c r="AD41" s="17">
+        <f t="shared" si="128"/>
+        <v>0.10948139036174909</v>
+      </c>
+      <c r="AM41" s="28">
+        <f>+AM5/AL5-1</f>
         <v>0.35729051069477991</v>
       </c>
-      <c r="AH41" s="28">
-        <f>+AH5/AG5-1</f>
+      <c r="AN41" s="28">
+        <f>+AN5/AM5-1</f>
         <v>0.87559116340959009</v>
       </c>
-      <c r="AI41" s="28">
-        <f>+AI5/AH5-1</f>
+      <c r="AO41" s="28">
+        <f>+AO5/AN5-1</f>
         <v>0.403761953095785</v>
       </c>
-      <c r="AJ41" s="28">
-        <f t="shared" ref="AJ41" si="128">+AJ5/AI5-1</f>
-        <v>0.35000000000000009</v>
-      </c>
-      <c r="AK41" s="28">
-        <f t="shared" ref="AK41" si="129">+AK5/AJ5-1</f>
-        <v>0.35517216183570288</v>
-      </c>
-      <c r="AL41" s="28">
-        <f t="shared" ref="AL41" si="130">+AL5/AK5-1</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AM41" s="28">
-        <f t="shared" ref="AM41" si="131">+AM5/AL5-1</f>
+      <c r="AP41" s="28">
+        <f t="shared" ref="AP41" si="129">+AP5/AO5-1</f>
+        <v>0.37654954785588313</v>
+      </c>
+      <c r="AQ41" s="28">
+        <f t="shared" ref="AQ41" si="130">+AQ5/AP5-1</f>
+        <v>6.3111024609901367E-2</v>
+      </c>
+      <c r="AR41" s="28">
+        <f t="shared" ref="AR41" si="131">+AR5/AQ5-1</f>
+        <v>0.62517870312427859</v>
+      </c>
+      <c r="AS41" s="28">
+        <f t="shared" ref="AS41" si="132">+AS5/AR5-1</f>
         <v>0.25</v>
       </c>
-      <c r="AN41" s="28">
-        <f t="shared" ref="AN41" si="132">+AN5/AM5-1</f>
+      <c r="AT41" s="28">
+        <f t="shared" ref="AT41" si="133">+AT5/AS5-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AO41" s="28">
-        <f t="shared" ref="AO41" si="133">+AO5/AN5-1</f>
+      <c r="AU41" s="28">
+        <f t="shared" ref="AU41" si="134">+AU5/AT5-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AP41" s="28">
-        <f t="shared" ref="AP41" si="134">+AP5/AO5-1</f>
+      <c r="AV41" s="28">
+        <f t="shared" ref="AV41" si="135">+AV5/AU5-1</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AQ41" s="28">
-        <f t="shared" ref="AQ41" si="135">+AQ5/AP5-1</f>
+      <c r="AW41" s="28">
+        <f t="shared" ref="AW41" si="136">+AW5/AV5-1</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="42" spans="2:99" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:105" x14ac:dyDescent="0.15">
       <c r="B42" s="22" t="s">
         <v>93</v>
       </c>
       <c r="K42" s="17">
-        <f t="shared" ref="K42" si="136">+K10/G10-1</f>
+        <f t="shared" ref="K42" si="137">+K10/G10-1</f>
         <v>0.33101713811610356</v>
       </c>
       <c r="L42" s="17">
-        <f t="shared" ref="L42" si="137">+L10/H10-1</f>
+        <f t="shared" ref="L42" si="138">+L10/H10-1</f>
         <v>-5.4866280672732248E-2</v>
       </c>
       <c r="M42" s="17">
-        <f t="shared" ref="M42" si="138">+M10/I10-1</f>
+        <f t="shared" ref="M42" si="139">+M10/I10-1</f>
         <v>0.50835629972440333</v>
       </c>
       <c r="N42" s="17">
-        <f t="shared" ref="N42" si="139">+N10/J10-1</f>
+        <f t="shared" ref="N42" si="140">+N10/J10-1</f>
         <v>0.71375046476818782</v>
       </c>
       <c r="O42" s="17">
-        <f t="shared" ref="O42" si="140">+O10/K10-1</f>
+        <f t="shared" ref="O42" si="141">+O10/K10-1</f>
         <v>0.75644771700171409</v>
       </c>
       <c r="P42" s="17">
-        <f t="shared" ref="P42" si="141">+P10/L10-1</f>
+        <f t="shared" ref="P42" si="142">+P10/L10-1</f>
         <v>1.5090067094515751</v>
       </c>
       <c r="Q42" s="17">
-        <f t="shared" ref="Q42" si="142">+Q10/M10-1</f>
+        <f t="shared" ref="Q42" si="143">+Q10/M10-1</f>
         <v>0.63975150996993846</v>
       </c>
       <c r="R42" s="17">
-        <f>+R10/N10-1</f>
+        <f t="shared" ref="R42:W42" si="144">+R10/N10-1</f>
         <v>0.7014080119272128</v>
       </c>
       <c r="S42" s="17">
-        <f>+S10/O10-1</f>
+        <f t="shared" si="144"/>
         <v>0.69352549102241356</v>
       </c>
       <c r="T42" s="17">
-        <f>+T10/P10-1</f>
+        <f t="shared" si="144"/>
         <v>0.25268262434539124</v>
       </c>
       <c r="U42" s="17">
-        <f>+U10/Q10-1</f>
+        <f t="shared" si="144"/>
         <v>0.53863587626091669</v>
       </c>
       <c r="V42" s="17">
-        <f>+V10/R10-1</f>
+        <f t="shared" si="144"/>
         <v>0.43768310227569973</v>
       </c>
       <c r="W42" s="17">
-        <f>+W10/S10-1</f>
+        <f t="shared" si="144"/>
         <v>0.44334609226376598</v>
       </c>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AG42" s="28">
-        <f t="shared" ref="AG42:AH42" si="143">+AG10/AF10-1</f>
+      <c r="X42" s="17">
+        <f t="shared" ref="X42" si="145">+X10/T10-1</f>
+        <v>0.85513187408152214</v>
+      </c>
+      <c r="Y42" s="17">
+        <f t="shared" ref="Y42" si="146">+Y10/U10-1</f>
+        <v>0.17644422460462983</v>
+      </c>
+      <c r="Z42" s="17">
+        <f t="shared" ref="Z42" si="147">+Z10/V10-1</f>
+        <v>0.12573999149421988</v>
+      </c>
+      <c r="AA42" s="17">
+        <f t="shared" ref="AA42" si="148">+AA10/W10-1</f>
+        <v>-1.687129090216144E-2</v>
+      </c>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AM42" s="28">
+        <f t="shared" ref="AM42:AN42" si="149">+AM10/AL10-1</f>
         <v>0.39565262627590125</v>
       </c>
-      <c r="AH42" s="28">
-        <f t="shared" si="143"/>
+      <c r="AN42" s="28">
+        <f t="shared" si="149"/>
         <v>0.8252981439448186</v>
       </c>
-      <c r="AI42" s="28">
-        <f>+AI10/AH10-1</f>
+      <c r="AO42" s="28">
+        <f>+AO10/AN10-1</f>
         <v>0.47203204567389845</v>
       </c>
-      <c r="AJ42" s="28">
-        <f>+AJ10/AI10-1</f>
+      <c r="AP42" s="28">
+        <f>+AP10/AO10-1</f>
         <v>0.35000000000000009</v>
-      </c>
-      <c r="AK42" s="28">
-        <f t="shared" ref="AK42" si="144">+AK10/AJ10-1</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AL42" s="28">
-        <f t="shared" ref="AL42" si="145">+AL10/AK10-1</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AM42" s="28">
-        <f t="shared" ref="AM42" si="146">+AM10/AL10-1</f>
-        <v>0.25</v>
-      </c>
-      <c r="AN42" s="28">
-        <f t="shared" ref="AN42" si="147">+AN10/AM10-1</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AO42" s="28">
-        <f t="shared" ref="AO42" si="148">+AO10/AN10-1</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AP42" s="28">
-        <f t="shared" ref="AP42" si="149">+AP10/AO10-1</f>
-        <v>0.14999999999999991</v>
       </c>
       <c r="AQ42" s="28">
         <f t="shared" ref="AQ42" si="150">+AQ10/AP10-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AR42" s="28">
+        <f t="shared" ref="AR42" si="151">+AR10/AQ10-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AS42" s="28">
+        <f t="shared" ref="AS42" si="152">+AS10/AR10-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="AT42" s="28">
+        <f t="shared" ref="AT42" si="153">+AT10/AS10-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AU42" s="28">
+        <f t="shared" ref="AU42" si="154">+AU10/AT10-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AV42" s="28">
+        <f t="shared" ref="AV42" si="155">+AV10/AU10-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AW42" s="28">
+        <f t="shared" ref="AW42" si="156">+AW10/AV10-1</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="43" spans="2:99" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:105" x14ac:dyDescent="0.15">
       <c r="B43" s="20" t="s">
         <v>91</v>
       </c>
       <c r="K43" s="17">
-        <f t="shared" ref="K43:O43" si="151">K14/G14-1</f>
+        <f t="shared" ref="K43:O43" si="157">K14/G14-1</f>
         <v>0.39441436306640076</v>
       </c>
       <c r="L43" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="157"/>
         <v>-4.9729102167182626E-2</v>
       </c>
       <c r="M43" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="157"/>
         <v>0.43141075604053003</v>
       </c>
       <c r="N43" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="157"/>
         <v>0.4053394107113788</v>
       </c>
       <c r="O43" s="17">
-        <f t="shared" si="151"/>
+        <f t="shared" si="157"/>
         <v>0.67320662170447587</v>
       </c>
       <c r="P43" s="17">
@@ -5323,7 +6005,7 @@
         <v>0.9385053960496843</v>
       </c>
       <c r="Q43" s="17">
-        <f t="shared" ref="Q43" si="152">Q14/M14-1</f>
+        <f t="shared" ref="Q43" si="158">Q14/M14-1</f>
         <v>0.55091206098557044</v>
       </c>
       <c r="R43" s="17">
@@ -5331,19 +6013,19 @@
         <v>0.74041468782578468</v>
       </c>
       <c r="S43" s="17">
-        <f t="shared" ref="S43:U43" si="153">S14/O14-1</f>
+        <f t="shared" ref="S43:U43" si="159">S14/O14-1</f>
         <v>0.89495541712470983</v>
       </c>
       <c r="T43" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="159"/>
         <v>0.43592436974789917</v>
       </c>
       <c r="U43" s="17">
-        <f t="shared" si="153"/>
+        <f t="shared" si="159"/>
         <v>0.561046256473273</v>
       </c>
       <c r="V43" s="17">
-        <f t="shared" ref="V43" si="154">V14/R14-1</f>
+        <f t="shared" ref="V43" si="160">V14/R14-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="W43" s="17">
@@ -5351,25 +6033,41 @@
         <v>0.21683640582699493</v>
       </c>
       <c r="X43" s="17">
-        <f t="shared" ref="X43" si="155">X14/T14-1</f>
-        <v>0.39999999999999991</v>
+        <f t="shared" ref="X43" si="161">X14/T14-1</f>
+        <v>0.49370885149963417</v>
       </c>
       <c r="Y43" s="17">
-        <f t="shared" ref="Y43" si="156">Y14/U14-1</f>
-        <v>0.39999999999999991</v>
+        <f t="shared" ref="Y43" si="162">Y14/U14-1</f>
+        <v>4.4813044700590332E-2</v>
       </c>
       <c r="Z43" s="17">
-        <f t="shared" ref="Z43" si="157">Z14/V14-1</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="AS43" s="30" t="s">
+        <f t="shared" ref="Z43:AD43" si="163">Z14/V14-1</f>
+        <v>-1.9253624910862799E-2</v>
+      </c>
+      <c r="AA43" s="17">
+        <f t="shared" si="163"/>
+        <v>-0.12808560228837795</v>
+      </c>
+      <c r="AB43" s="17">
+        <f t="shared" si="163"/>
+        <v>0.16366102458488885</v>
+      </c>
+      <c r="AC43" s="17">
+        <f t="shared" si="163"/>
+        <v>0.16271585003413347</v>
+      </c>
+      <c r="AD43" s="17">
+        <f t="shared" si="163"/>
+        <v>0.16495545987983684</v>
+      </c>
+      <c r="AY43" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="AT43" s="28">
+      <c r="AZ43" s="28">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="44" spans="2:99" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:105" x14ac:dyDescent="0.15">
       <c r="B44" s="20" t="s">
         <v>90</v>
       </c>
@@ -5378,67 +6076,67 @@
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17">
-        <f t="shared" ref="G44:K44" si="158">G22/G14</f>
+        <f t="shared" ref="G44:K44" si="164">G22/G14</f>
         <v>0.18609290396124251</v>
       </c>
       <c r="H44" s="17">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>0.17685758513931887</v>
       </c>
       <c r="I44" s="17">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>0.21784879189399844</v>
       </c>
       <c r="J44" s="17">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>0.21618101904606871</v>
       </c>
       <c r="K44" s="17">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>0.2440220723482526</v>
       </c>
       <c r="L44" s="17">
-        <f t="shared" ref="L44" si="159">L22/L14</f>
+        <f t="shared" ref="L44" si="165">L22/L14</f>
         <v>0.24373854612095297</v>
       </c>
       <c r="M44" s="17">
-        <f t="shared" ref="M44" si="160">M22/M14</f>
+        <f t="shared" ref="M44" si="166">M22/M14</f>
         <v>0.27021508303838826</v>
       </c>
       <c r="N44" s="17">
-        <f t="shared" ref="N44:U44" si="161">N22/N14</f>
+        <f t="shared" ref="N44:U44" si="167">N22/N14</f>
         <v>0.19819298042395458</v>
       </c>
       <c r="O44" s="17">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>0.21131061438866497</v>
       </c>
       <c r="P44" s="17">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>0.25220588235294117</v>
       </c>
       <c r="Q44" s="17">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>0.28464846835776353</v>
       </c>
       <c r="R44" s="17">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>0.28858569051580701</v>
       </c>
       <c r="S44" s="17">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>0.29650638133298957</v>
       </c>
       <c r="T44" s="17">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>0.25727871250914414</v>
       </c>
       <c r="U44" s="17">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>0.26348046106269329</v>
       </c>
       <c r="V44" s="17">
-        <f t="shared" ref="V44:Z44" si="162">V22/V14</f>
+        <f t="shared" ref="V44:AD44" si="168">V22/V14</f>
         <v>0.26631804135963871</v>
       </c>
       <c r="W44" s="17">
@@ -5446,45 +6144,61 @@
         <v>0.1830702404915775</v>
       </c>
       <c r="X44" s="17">
-        <f t="shared" si="162"/>
-        <v>0.25</v>
+        <f t="shared" si="168"/>
+        <v>0.17522895342573094</v>
       </c>
       <c r="Y44" s="17">
-        <f t="shared" si="162"/>
-        <v>0.25</v>
+        <f t="shared" si="168"/>
+        <v>0.15746421267893659</v>
       </c>
       <c r="Z44" s="17">
-        <f t="shared" si="162"/>
-        <v>0.25000000000000006</v>
-      </c>
-      <c r="AG44" s="17">
-        <f t="shared" ref="AG44:AK44" si="163">AG22/AG14</f>
+        <f t="shared" si="168"/>
+        <v>0.16616577799321378</v>
+      </c>
+      <c r="AA44" s="17">
+        <f t="shared" si="168"/>
+        <v>0.15571081409477522</v>
+      </c>
+      <c r="AB44" s="17">
+        <f t="shared" si="168"/>
+        <v>0.15000000000000005</v>
+      </c>
+      <c r="AC44" s="17">
+        <f t="shared" si="168"/>
+        <v>0.14999999999999994</v>
+      </c>
+      <c r="AD44" s="17">
+        <f t="shared" si="168"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AM44" s="17">
+        <f t="shared" ref="AM44:AQ44" si="169">AM22/AM14</f>
         <v>0</v>
       </c>
-      <c r="AH44" s="17">
-        <f t="shared" si="163"/>
+      <c r="AN44" s="17">
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
-      <c r="AI44" s="17">
-        <f t="shared" si="163"/>
+      <c r="AO44" s="17">
+        <f t="shared" si="169"/>
         <v>0.27064584436209632</v>
       </c>
-      <c r="AJ44" s="17">
-        <f t="shared" si="163"/>
-        <v>0.23632042787233121</v>
-      </c>
-      <c r="AK44" s="17">
-        <f t="shared" si="163"/>
+      <c r="AP44" s="17">
+        <f t="shared" si="169"/>
+        <v>0.17052821969455731</v>
+      </c>
+      <c r="AQ44" s="17">
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
-      <c r="AS44" s="30" t="s">
+      <c r="AY44" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="AT44" s="32">
+      <c r="AZ44" s="32">
         <v>0.08</v>
       </c>
     </row>
-    <row r="45" spans="2:99" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:105" x14ac:dyDescent="0.15">
       <c r="B45" s="20" t="s">
         <v>45</v>
       </c>
@@ -5493,31 +6207,31 @@
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17">
-        <f t="shared" ref="G45:K45" si="164">+G28/G20</f>
+        <f t="shared" ref="G45:K45" si="170">+G28/G20</f>
         <v>0.1246421493063202</v>
       </c>
       <c r="H45" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="170"/>
         <v>0.14503937007874015</v>
       </c>
       <c r="I45" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="170"/>
         <v>0.18895763921941933</v>
       </c>
       <c r="J45" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="170"/>
         <v>0.18838028169014084</v>
       </c>
       <c r="K45" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="170"/>
         <v>0.20618212197159566</v>
       </c>
       <c r="L45" s="17">
-        <f t="shared" ref="L45" si="165">+L28/L20</f>
+        <f t="shared" ref="L45" si="171">+L28/L20</f>
         <v>0.20990722332670642</v>
       </c>
       <c r="M45" s="17">
-        <f t="shared" ref="M45" si="166">+M28/M20</f>
+        <f t="shared" ref="M45" si="172">+M28/M20</f>
         <v>0.23520693193478509</v>
       </c>
       <c r="N45" s="17">
@@ -5525,82 +6239,98 @@
         <v>0.19229337304542071</v>
       </c>
       <c r="O45" s="17">
-        <f t="shared" ref="O45:Z45" si="167">+O28/O20</f>
+        <f t="shared" ref="O45:AD45" si="173">+O28/O20</f>
         <v>0.21320627586870727</v>
       </c>
       <c r="P45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="173"/>
         <v>0.24117745442381669</v>
       </c>
       <c r="Q45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="173"/>
         <v>0.26604637639020134</v>
       </c>
       <c r="R45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="173"/>
         <v>0.27354816863254133</v>
       </c>
       <c r="S45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="173"/>
         <v>0.29110684580934099</v>
       </c>
       <c r="T45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="173"/>
         <v>0.24997047360340144</v>
       </c>
       <c r="U45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="173"/>
         <v>0.25086231005873033</v>
       </c>
       <c r="V45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="173"/>
         <v>0.25257794296679104</v>
       </c>
       <c r="W45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="173"/>
         <v>0.19336448197522396</v>
       </c>
       <c r="X45" s="17">
-        <f t="shared" si="167"/>
+        <f t="shared" si="173"/>
+        <v>0.18185100493440848</v>
+      </c>
+      <c r="Y45" s="17">
+        <f t="shared" si="173"/>
+        <v>0.17892933618843684</v>
+      </c>
+      <c r="Z45" s="17">
+        <f t="shared" si="173"/>
+        <v>0.17634203520483172</v>
+      </c>
+      <c r="AA45" s="17">
+        <f t="shared" si="173"/>
+        <v>0.1735129806112389</v>
+      </c>
+      <c r="AB45" s="17">
+        <f t="shared" si="173"/>
+        <v>0.15142206276448977</v>
+      </c>
+      <c r="AC45" s="17">
+        <f t="shared" si="173"/>
+        <v>0.15906968057651291</v>
+      </c>
+      <c r="AD45" s="17">
+        <f t="shared" si="173"/>
+        <v>0.15511900037130005</v>
+      </c>
+      <c r="AM45" s="17">
+        <f t="shared" ref="AM45:AQ45" si="174">+AM28/AM20</f>
+        <v>0</v>
+      </c>
+      <c r="AN45" s="17">
+        <f t="shared" si="174"/>
+        <v>0</v>
+      </c>
+      <c r="AO45" s="17">
+        <f t="shared" si="174"/>
         <v>0.25</v>
       </c>
-      <c r="Y45" s="17">
-        <f t="shared" si="167"/>
-        <v>0.25</v>
-      </c>
-      <c r="Z45" s="17">
-        <f t="shared" si="167"/>
-        <v>0.25</v>
-      </c>
-      <c r="AG45" s="17">
-        <f t="shared" ref="AG45:AK45" si="168">+AG28/AG20</f>
-        <v>0</v>
-      </c>
-      <c r="AH45" s="17">
-        <f t="shared" si="168"/>
-        <v>0</v>
-      </c>
-      <c r="AI45" s="17">
-        <f t="shared" si="168"/>
-        <v>0.25</v>
-      </c>
-      <c r="AJ45" s="17">
-        <f t="shared" si="168"/>
-        <v>0.23818217368219946</v>
-      </c>
-      <c r="AK45" s="17">
-        <f t="shared" si="168"/>
-        <v>0.21094911653891116</v>
-      </c>
-      <c r="AS45" s="30" t="s">
+      <c r="AP45" s="17">
+        <f t="shared" si="174"/>
+        <v>0.18248891736331416</v>
+      </c>
+      <c r="AQ45" s="17">
+        <f t="shared" si="174"/>
+        <v>0.18999999999999992</v>
+      </c>
+      <c r="AY45" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="AT45" s="4">
-        <f>NPV(AT44,AK36:CU36)+Main!K5-Main!K6</f>
-        <v>1207710.564308471</v>
-      </c>
-    </row>
-    <row r="46" spans="2:99" x14ac:dyDescent="0.2">
+      <c r="AZ45" s="4">
+        <f>NPV(AZ44,AQ36:DA36)+Main!K5-Main!K6</f>
+        <v>620317.01090449432</v>
+      </c>
+    </row>
+    <row r="46" spans="2:105" x14ac:dyDescent="0.15">
       <c r="B46" s="15"/>
       <c r="R46" s="17"/>
       <c r="S46" s="17"/>
@@ -5611,23 +6341,27 @@
       <c r="X46" s="17"/>
       <c r="Y46" s="17"/>
       <c r="Z46" s="17"/>
-      <c r="AS46" s="30" t="s">
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AY46" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AT46" s="28">
+      <c r="AZ46" s="28">
         <v>0.03</v>
       </c>
     </row>
-    <row r="47" spans="2:99" x14ac:dyDescent="0.2">
-      <c r="AS47" s="30" t="s">
+    <row r="47" spans="2:105" x14ac:dyDescent="0.15">
+      <c r="AY47" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="AT47" s="21">
-        <f>AT45/Main!K3</f>
-        <v>382.45891146119766</v>
-      </c>
-    </row>
-    <row r="48" spans="2:99" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AZ47" s="21">
+        <f>AZ45/Main!K3</f>
+        <v>196.4425713931239</v>
+      </c>
+    </row>
+    <row r="48" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
         <v>55</v>
       </c>
@@ -5642,27 +6376,27 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5">
-        <f t="shared" ref="M48:R48" si="169">M36</f>
+        <f t="shared" ref="M48:R48" si="175">M36</f>
         <v>300</v>
       </c>
       <c r="N48" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>270</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>337</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>1165</v>
       </c>
       <c r="Q48" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>1669</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="169"/>
+        <f t="shared" si="175"/>
         <v>2321</v>
       </c>
       <c r="S48" s="5">
@@ -5678,31 +6412,47 @@
         <v>3331</v>
       </c>
       <c r="V48" s="5">
-        <f t="shared" ref="V48:Z48" si="170">V36</f>
+        <f t="shared" ref="V48:AD48" si="176">V36</f>
         <v>3468.7999999999984</v>
       </c>
       <c r="W48" s="5">
-        <f t="shared" si="170"/>
-        <v>2539</v>
+        <f t="shared" si="176"/>
+        <v>2513</v>
       </c>
       <c r="X48" s="5">
-        <f t="shared" si="170"/>
-        <v>3515.9400000000005</v>
+        <f t="shared" si="176"/>
+        <v>2703</v>
       </c>
       <c r="Y48" s="5">
-        <f t="shared" si="170"/>
-        <v>4862.5200000000013</v>
+        <f t="shared" si="176"/>
+        <v>1853</v>
       </c>
       <c r="Z48" s="5">
-        <f t="shared" si="170"/>
-        <v>4930.1549999999997</v>
-      </c>
-      <c r="AT48" s="28">
-        <f>AT47/Main!K2-1</f>
-        <v>1.3179327967345311</v>
-      </c>
-    </row>
-    <row r="49" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="176"/>
+        <v>2176</v>
+      </c>
+      <c r="AA48" s="5">
+        <f t="shared" si="176"/>
+        <v>1129</v>
+      </c>
+      <c r="AB48" s="5">
+        <f t="shared" si="176"/>
+        <v>1546.4953353198616</v>
+      </c>
+      <c r="AC48" s="5">
+        <f t="shared" si="176"/>
+        <v>1231.8703110401104</v>
+      </c>
+      <c r="AD48" s="5">
+        <f t="shared" si="176"/>
+        <v>1456.2837364785246</v>
+      </c>
+      <c r="AZ48" s="28">
+        <f>AZ47/Main!K2-1</f>
+        <v>0.11615097382456763</v>
+      </c>
+    </row>
+    <row r="49" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
         <v>56</v>
       </c>
@@ -5748,11 +6498,23 @@
       <c r="W49" s="5">
         <v>2539</v>
       </c>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-    </row>
-    <row r="50" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X49" s="5">
+        <v>2614</v>
+      </c>
+      <c r="Y49" s="5">
+        <v>1878</v>
+      </c>
+      <c r="Z49" s="5">
+        <v>7943</v>
+      </c>
+      <c r="AA49" s="5">
+        <v>1144</v>
+      </c>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+    </row>
+    <row r="50" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
         <v>57</v>
       </c>
@@ -5798,11 +6560,23 @@
       <c r="W50" s="5">
         <v>1046</v>
       </c>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-    </row>
-    <row r="51" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X50" s="5">
+        <v>1154</v>
+      </c>
+      <c r="Y50" s="5">
+        <v>1235</v>
+      </c>
+      <c r="Z50" s="5">
+        <v>1232</v>
+      </c>
+      <c r="AA50" s="5">
+        <v>1246</v>
+      </c>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+    </row>
+    <row r="51" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="4" t="s">
         <v>58</v>
       </c>
@@ -5848,11 +6622,23 @@
       <c r="W51" s="5">
         <v>418</v>
       </c>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-    </row>
-    <row r="52" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X51" s="5">
+        <v>445</v>
+      </c>
+      <c r="Y51" s="5">
+        <v>465</v>
+      </c>
+      <c r="Z51" s="5">
+        <v>484</v>
+      </c>
+      <c r="AA51" s="5">
+        <v>524</v>
+      </c>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+    </row>
+    <row r="52" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
         <v>59</v>
       </c>
@@ -5885,8 +6671,14 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
-    </row>
-    <row r="53" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+    </row>
+    <row r="53" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="10" t="s">
         <v>80</v>
       </c>
@@ -5933,12 +6725,25 @@
         <v>40</v>
       </c>
       <c r="X53" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-    </row>
-    <row r="54" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f>-148-47</f>
+        <v>-195</v>
+      </c>
+      <c r="Y53" s="5">
+        <f>-113+145</f>
+        <v>32</v>
+      </c>
+      <c r="Z53" s="5">
+        <f>-6033+262</f>
+        <v>-5771</v>
+      </c>
+      <c r="AA53" s="5">
+        <v>-11</v>
+      </c>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+    </row>
+    <row r="54" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="4" t="s">
         <v>60</v>
       </c>
@@ -5971,8 +6776,14 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
-    </row>
-    <row r="55" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+    </row>
+    <row r="55" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="19" t="s">
         <v>69</v>
       </c>
@@ -6003,8 +6814,14 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
-    </row>
-    <row r="56" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+    </row>
+    <row r="56" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
         <v>61</v>
       </c>
@@ -6051,11 +6868,23 @@
       <c r="W56" s="5">
         <v>-1530</v>
       </c>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-    </row>
-    <row r="57" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X56" s="5">
+        <v>-953</v>
+      </c>
+      <c r="Y56" s="5">
+        <v>-302</v>
+      </c>
+      <c r="Z56" s="5">
+        <v>482</v>
+      </c>
+      <c r="AA56" s="5">
+        <v>-2661</v>
+      </c>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+    </row>
+    <row r="57" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
         <v>62</v>
       </c>
@@ -6071,23 +6900,23 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5">
-        <f t="shared" ref="N57:R57" si="171">SUM(N49:N56)</f>
+        <f t="shared" ref="N57:R57" si="177">SUM(N49:N56)</f>
         <v>3019</v>
       </c>
       <c r="O57" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="177"/>
         <v>1641</v>
       </c>
       <c r="P57" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="177"/>
         <v>2124</v>
       </c>
       <c r="Q57" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="177"/>
         <v>3147</v>
       </c>
       <c r="R57" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="177"/>
         <v>4585</v>
       </c>
       <c r="S57" s="5">
@@ -6110,11 +6939,27 @@
         <f>SUM(W49:W56)</f>
         <v>2513</v>
       </c>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-    </row>
-    <row r="58" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X57" s="5">
+        <f>SUM(X49:X56)</f>
+        <v>3065</v>
+      </c>
+      <c r="Y57" s="5">
+        <f>SUM(Y49:Y56)</f>
+        <v>3308</v>
+      </c>
+      <c r="Z57" s="5">
+        <f>SUM(Z49:Z56)</f>
+        <v>4370</v>
+      </c>
+      <c r="AA57" s="5">
+        <f>SUM(AA49:AA56)</f>
+        <v>242</v>
+      </c>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+    </row>
+    <row r="58" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -6139,8 +6984,12 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
-    </row>
-    <row r="59" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+    </row>
+    <row r="59" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="10" t="s">
         <v>81</v>
       </c>
@@ -6187,11 +7036,23 @@
       <c r="W59" s="5">
         <v>2072</v>
       </c>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-    </row>
-    <row r="60" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X59" s="5">
+        <v>2060</v>
+      </c>
+      <c r="Y59" s="5">
+        <v>2460</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>2306</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>2773</v>
+      </c>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+    </row>
+    <row r="60" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="10" t="s">
         <v>82</v>
       </c>
@@ -6211,23 +7072,23 @@
         <v>1868</v>
       </c>
       <c r="O60" s="5">
-        <f t="shared" ref="O60:R60" si="172">O57-O59</f>
+        <f t="shared" ref="O60:R60" si="178">O57-O59</f>
         <v>293</v>
       </c>
       <c r="P60" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="178"/>
         <v>619</v>
       </c>
       <c r="Q60" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="178"/>
         <v>1328</v>
       </c>
       <c r="R60" s="5">
-        <f t="shared" si="172"/>
+        <f t="shared" si="178"/>
         <v>2775</v>
       </c>
       <c r="S60" s="5">
-        <f t="shared" ref="S60" si="173">S57-S59</f>
+        <f t="shared" ref="S60" si="179">S57-S59</f>
         <v>2228</v>
       </c>
       <c r="T60" s="5">
@@ -6246,11 +7107,27 @@
         <f>W57-W59</f>
         <v>441</v>
       </c>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-    </row>
-    <row r="61" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X60" s="5">
+        <f>X57-X59</f>
+        <v>1005</v>
+      </c>
+      <c r="Y60" s="5">
+        <f>Y57-Y59</f>
+        <v>848</v>
+      </c>
+      <c r="Z60" s="5">
+        <f>Z57-Z59</f>
+        <v>2064</v>
+      </c>
+      <c r="AA60" s="5">
+        <f>AA57-AA59</f>
+        <v>-2531</v>
+      </c>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+    </row>
+    <row r="61" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="10" t="s">
         <v>83</v>
       </c>
@@ -6269,38 +7146,54 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5">
-        <f>SUM(N60:Q60)</f>
+        <f t="shared" ref="Q61:AA61" si="180">SUM(N60:Q60)</f>
         <v>4108</v>
       </c>
       <c r="R61" s="5">
-        <f>SUM(O60:R60)</f>
+        <f t="shared" si="180"/>
         <v>5015</v>
       </c>
       <c r="S61" s="5">
-        <f>SUM(P60:S60)</f>
+        <f t="shared" si="180"/>
         <v>6950</v>
       </c>
       <c r="T61" s="5">
-        <f>SUM(Q60:T60)</f>
+        <f t="shared" si="180"/>
         <v>6952</v>
       </c>
       <c r="U61" s="5">
-        <f>SUM(R60:U60)</f>
+        <f t="shared" si="180"/>
         <v>8921</v>
       </c>
       <c r="V61" s="5">
-        <f>SUM(S60:V60)</f>
+        <f t="shared" si="180"/>
         <v>7566</v>
       </c>
       <c r="W61" s="5">
         <f>SUM(T60:W60)</f>
         <v>5779</v>
       </c>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-    </row>
-    <row r="62" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X61" s="5">
+        <f>SUM(U60:X60)</f>
+        <v>6163</v>
+      </c>
+      <c r="Y61" s="5">
+        <f>SUM(V60:Y60)</f>
+        <v>3714</v>
+      </c>
+      <c r="Z61" s="5">
+        <f>SUM(W60:Z60)</f>
+        <v>4358</v>
+      </c>
+      <c r="AA61" s="5">
+        <f>SUM(X60:AA60)</f>
+        <v>1386</v>
+      </c>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+    </row>
+    <row r="62" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -6325,8 +7218,12 @@
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
-    </row>
-    <row r="63" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+    </row>
+    <row r="63" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="31" t="s">
         <v>115</v>
       </c>
@@ -6355,51 +7252,58 @@
         <v>19726</v>
       </c>
       <c r="X63" s="5">
-        <f t="shared" ref="X63:Z63" si="174">X64-X81</f>
-        <v>23241.940000000002</v>
+        <f t="shared" ref="X63:AA63" si="181">X64-X81</f>
+        <v>25105</v>
       </c>
       <c r="Y63" s="5">
-        <f t="shared" si="174"/>
-        <v>28104.460000000003</v>
+        <f t="shared" si="181"/>
+        <v>26958</v>
       </c>
       <c r="Z63" s="5">
-        <f t="shared" si="174"/>
-        <v>33034.615000000005</v>
-      </c>
-      <c r="AJ63" s="4">
+        <f t="shared" si="181"/>
+        <v>29134</v>
+      </c>
+      <c r="AA63" s="5">
+        <f t="shared" si="181"/>
+        <v>21503</v>
+      </c>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AP63" s="4">
         <f>Z63</f>
-        <v>33034.615000000005</v>
-      </c>
-      <c r="AK63" s="4">
-        <f>AJ63+AK36</f>
-        <v>50607.914857986601</v>
-      </c>
-      <c r="AL63" s="4">
-        <f t="shared" ref="AL63:AQ63" si="175">AK63+AL36</f>
-        <v>81498.153955044894</v>
-      </c>
-      <c r="AM63" s="4">
-        <f t="shared" si="175"/>
-        <v>127602.15208270708</v>
-      </c>
-      <c r="AN63" s="4">
-        <f t="shared" si="175"/>
-        <v>191410.67808016553</v>
-      </c>
-      <c r="AO63" s="4">
-        <f t="shared" si="175"/>
-        <v>278009.78617729852</v>
-      </c>
-      <c r="AP63" s="4">
-        <f t="shared" si="175"/>
-        <v>388919.00170094747</v>
+        <v>29134</v>
       </c>
       <c r="AQ63" s="4">
-        <f t="shared" si="175"/>
-        <v>523408.26267566043</v>
-      </c>
-    </row>
-    <row r="64" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f>AP63+AQ36</f>
+        <v>40810.408632925319</v>
+      </c>
+      <c r="AR63" s="4">
+        <f t="shared" ref="AR63:AW63" si="182">AQ63+AR36</f>
+        <v>60222.603323051248</v>
+      </c>
+      <c r="AS63" s="4">
+        <f t="shared" si="182"/>
+        <v>87486.026613446447</v>
+      </c>
+      <c r="AT63" s="4">
+        <f t="shared" si="182"/>
+        <v>123224.94803746909</v>
+      </c>
+      <c r="AU63" s="4">
+        <f t="shared" si="182"/>
+        <v>169525.80972710089</v>
+      </c>
+      <c r="AV63" s="4">
+        <f t="shared" si="182"/>
+        <v>226323.85134133397</v>
+      </c>
+      <c r="AW63" s="4">
+        <f t="shared" si="182"/>
+        <v>292497.96008608077</v>
+      </c>
+    </row>
+    <row r="64" spans="2:49" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="10" t="s">
         <v>3</v>
       </c>
@@ -6438,18 +7342,24 @@
       </c>
       <c r="X64" s="5">
         <f>W64+X36</f>
-        <v>25917.940000000002</v>
+        <v>25105</v>
       </c>
       <c r="Y64" s="5">
-        <f t="shared" ref="Y64:Z64" si="176">X64+Y36</f>
-        <v>30780.460000000003</v>
+        <f t="shared" ref="Y64:Z64" si="183">X64+Y36</f>
+        <v>26958</v>
       </c>
       <c r="Z64" s="5">
-        <f t="shared" si="176"/>
-        <v>35710.615000000005</v>
-      </c>
-    </row>
-    <row r="65" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="183"/>
+        <v>29134</v>
+      </c>
+      <c r="AA64" s="5">
+        <v>26863</v>
+      </c>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+    </row>
+    <row r="65" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="10" t="s">
         <v>63</v>
       </c>
@@ -6485,8 +7395,14 @@
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
-    </row>
-    <row r="66" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA65" s="5">
+        <v>3887</v>
+      </c>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+    </row>
+    <row r="66" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="10" t="s">
         <v>59</v>
       </c>
@@ -6522,8 +7438,14 @@
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
-    </row>
-    <row r="67" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA66" s="5">
+        <v>16033</v>
+      </c>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+    </row>
+    <row r="67" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B67" s="10" t="s">
         <v>64</v>
       </c>
@@ -6559,8 +7481,14 @@
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
-    </row>
-    <row r="68" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA67" s="5">
+        <v>3752</v>
+      </c>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+    </row>
+    <row r="68" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="10" t="s">
         <v>65</v>
       </c>
@@ -6596,8 +7524,14 @@
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
-    </row>
-    <row r="69" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA68" s="5">
+        <v>5736</v>
+      </c>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+    </row>
+    <row r="69" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="10" t="s">
         <v>66</v>
       </c>
@@ -6633,8 +7567,14 @@
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
-    </row>
-    <row r="70" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA69" s="5">
+        <v>5162</v>
+      </c>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+    </row>
+    <row r="70" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" s="10" t="s">
         <v>67</v>
       </c>
@@ -6670,8 +7610,14 @@
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
-    </row>
-    <row r="71" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA70" s="5">
+        <v>31436</v>
+      </c>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+    </row>
+    <row r="71" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B71" s="10" t="s">
         <v>68</v>
       </c>
@@ -6707,8 +7653,14 @@
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
-    </row>
-    <row r="72" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA71" s="5">
+        <v>4367</v>
+      </c>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+    </row>
+    <row r="72" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="10" t="s">
         <v>69</v>
       </c>
@@ -6744,8 +7696,14 @@
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
-    </row>
-    <row r="73" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA72" s="5">
+        <v>184</v>
+      </c>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+    </row>
+    <row r="73" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B73" s="10" t="s">
         <v>70</v>
       </c>
@@ -6783,8 +7741,14 @@
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
-    </row>
-    <row r="74" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA73" s="5">
+        <v>421</v>
+      </c>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+    </row>
+    <row r="74" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B74" s="10" t="s">
         <v>71</v>
       </c>
@@ -6820,8 +7784,15 @@
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
-    </row>
-    <row r="75" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA74" s="5">
+        <f>4616+6769</f>
+        <v>11385</v>
+      </c>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+    </row>
+    <row r="75" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B75" s="10" t="s">
         <v>72</v>
       </c>
@@ -6846,31 +7817,47 @@
         <v>62131</v>
       </c>
       <c r="T75" s="5">
-        <f t="shared" ref="T75:W75" si="177">SUM(T64:T74)</f>
+        <f t="shared" ref="T75:AA75" si="184">SUM(T64:T74)</f>
         <v>68513</v>
       </c>
       <c r="U75" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="184"/>
         <v>74426</v>
       </c>
       <c r="V75" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="184"/>
         <v>0</v>
       </c>
       <c r="W75" s="5">
-        <f t="shared" si="177"/>
+        <f t="shared" si="184"/>
         <v>86833</v>
       </c>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="X75" s="5">
+        <f t="shared" si="184"/>
+        <v>25105</v>
+      </c>
+      <c r="Y75" s="5">
+        <f t="shared" si="184"/>
+        <v>26958</v>
+      </c>
+      <c r="Z75" s="5">
+        <f t="shared" si="184"/>
+        <v>29134</v>
+      </c>
+      <c r="AA75" s="5">
+        <f t="shared" si="184"/>
+        <v>109226</v>
+      </c>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.15">
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B77" s="9" t="s">
         <v>73</v>
       </c>
@@ -6886,8 +7873,11 @@
       <c r="W77" s="5">
         <v>15904</v>
       </c>
-    </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="5">
+        <v>14725</v>
+      </c>
+    </row>
+    <row r="78" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B78" s="9" t="s">
         <v>74</v>
       </c>
@@ -6903,8 +7893,11 @@
       <c r="W78" s="5">
         <v>7321</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA78" s="5">
+        <v>9243</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B79" s="9" t="s">
         <v>75</v>
       </c>
@@ -6920,8 +7913,11 @@
       <c r="W79" s="5">
         <v>1750</v>
       </c>
-    </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA79" s="5">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="80" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B80" s="9" t="s">
         <v>76</v>
       </c>
@@ -6937,8 +7933,11 @@
       <c r="W80" s="5">
         <v>1057</v>
       </c>
-    </row>
-    <row r="81" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B81" s="9" t="s">
         <v>4</v>
       </c>
@@ -6958,20 +7957,18 @@
         <f>1404+1272</f>
         <v>2676</v>
       </c>
-      <c r="X81" s="5">
-        <f>W81</f>
-        <v>2676</v>
-      </c>
-      <c r="Y81" s="5">
-        <f>X81</f>
-        <v>2676</v>
-      </c>
-      <c r="Z81" s="5">
-        <f>Y81</f>
-        <v>2676</v>
-      </c>
-    </row>
-    <row r="82" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="X81" s="5"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
+      <c r="AA81" s="5">
+        <f>2461+2899</f>
+        <v>5360</v>
+      </c>
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
+    </row>
+    <row r="82" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B82" s="9" t="s">
         <v>75</v>
       </c>
@@ -6987,8 +7984,11 @@
       <c r="W82" s="5">
         <v>2911</v>
       </c>
-    </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="5">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="83" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B83" s="9" t="s">
         <v>77</v>
       </c>
@@ -7004,8 +8004,11 @@
       <c r="W83" s="5">
         <v>5979</v>
       </c>
-    </row>
-    <row r="84" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="5">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="84" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B84" s="9" t="s">
         <v>78</v>
       </c>
@@ -7025,8 +8028,12 @@
         <f>48054+407+774</f>
         <v>49235</v>
       </c>
-    </row>
-    <row r="85" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="5">
+        <f>73+64378+729</f>
+        <v>65180</v>
+      </c>
+    </row>
+    <row r="85" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B85" s="9" t="s">
         <v>79</v>
       </c>
@@ -7035,32 +8042,36 @@
         <v>62131</v>
       </c>
       <c r="T85" s="5">
-        <f t="shared" ref="T85:W85" si="178">SUM(T77:T84)</f>
+        <f t="shared" ref="T85:W85" si="185">SUM(T77:T84)</f>
         <v>68513</v>
       </c>
       <c r="U85" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="185"/>
         <v>74426</v>
       </c>
       <c r="V85" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="185"/>
         <v>0</v>
       </c>
       <c r="W85" s="5">
-        <f t="shared" si="178"/>
+        <f t="shared" si="185"/>
         <v>86833</v>
       </c>
-    </row>
-    <row r="86" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="5">
+        <f t="shared" ref="AA85" si="186">SUM(AA77:AA84)</f>
+        <v>109226</v>
+      </c>
+    </row>
+    <row r="86" spans="2:30" x14ac:dyDescent="0.15">
       <c r="S86" s="5"/>
     </row>
-    <row r="87" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:30" x14ac:dyDescent="0.15">
       <c r="S87" s="5"/>
     </row>
-    <row r="88" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:30" x14ac:dyDescent="0.15">
       <c r="S88" s="5"/>
     </row>
-    <row r="89" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:30" x14ac:dyDescent="0.15">
       <c r="S89" s="5"/>
     </row>
   </sheetData>
@@ -7068,6 +8079,7 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{997EC1A7-4D47-4E8D-919D-603FB3C9B2D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -7081,20 +8093,20 @@
       <selection activeCell="D12" sqref="D4:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="30"/>
-    <col min="3" max="3" width="11.7109375" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="30"/>
+    <col min="2" max="2" width="9.1640625" style="30"/>
+    <col min="3" max="3" width="11.6640625" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="30" t="s">
         <v>98</v>
       </c>
@@ -7105,7 +8117,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" s="30" t="s">
         <v>100</v>
       </c>
@@ -7113,7 +8125,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="30" t="s">
         <v>101</v>
       </c>
@@ -7124,7 +8136,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="30" t="s">
         <v>102</v>
       </c>
@@ -7135,7 +8147,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="30" t="s">
         <v>104</v>
       </c>
@@ -7146,7 +8158,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" s="30" t="s">
         <v>105</v>
       </c>
@@ -7154,7 +8166,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="30" t="s">
         <v>106</v>
       </c>
@@ -7165,7 +8177,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" s="30" t="s">
         <v>108</v>
       </c>
@@ -7173,7 +8185,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C12" s="30" t="s">
         <v>109</v>
       </c>
